--- a/Copy of Warang Citi Pair Frequency in Muluku Hitehasa(2310).xlsx
+++ b/Copy of Warang Citi Pair Frequency in Muluku Hitehasa(2310).xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Primary Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Most Frequent List" sheetId="3" r:id="rId2"/>
+    <sheet name="List" sheetId="4" r:id="rId2"/>
+    <sheet name="Pending" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="107">
   <si>
     <t>FIRST LETTER OF THE PAIR</t>
   </si>
@@ -333,12 +334,21 @@
   <si>
     <t>Sheet1</t>
   </si>
+  <si>
+    <t>HARR</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Pairs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -407,8 +417,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,8 +486,26 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -705,11 +740,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,23 +876,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -848,9 +887,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -881,11 +917,648 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1249,8 +1922,8 @@
   </sheetPr>
   <dimension ref="A1:AO984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1295,13 +1968,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1312,183 +1985,183 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
       <c r="AM1" s="41"/>
       <c r="AN1" s="41"/>
       <c r="AO1" s="41"/>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="53"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="58" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
       <c r="AM2" s="41"/>
       <c r="AN2" s="41"/>
       <c r="AO2" s="41"/>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" s="53"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="62" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="M3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="62" t="s">
+      <c r="N3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="62" t="s">
+      <c r="O3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="62" t="s">
+      <c r="P3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="Q3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="62" t="s">
+      <c r="R3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="62" t="s">
+      <c r="S3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="62" t="s">
+      <c r="T3" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="62" t="s">
+      <c r="U3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="62" t="s">
+      <c r="V3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="62" t="s">
+      <c r="W3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="62" t="s">
+      <c r="X3" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="62" t="s">
+      <c r="Y3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="62" t="s">
+      <c r="Z3" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="AA3" s="62" t="s">
+      <c r="AA3" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="62" t="s">
+      <c r="AB3" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="AC3" s="62" t="s">
+      <c r="AC3" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AD3" s="62" t="s">
+      <c r="AD3" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="62" t="s">
+      <c r="AE3" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="62" t="s">
+      <c r="AF3" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AG3" s="62" t="s">
+      <c r="AG3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AH3" s="62" t="s">
+      <c r="AH3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AI3" s="62" t="s">
+      <c r="AI3" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="AJ3" s="62" t="s">
+      <c r="AJ3" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="AK3" s="62" t="s">
+      <c r="AK3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="AL3" s="62" t="s">
+      <c r="AL3" s="51" t="s">
         <v>35</v>
       </c>
       <c r="AM3" s="41"/>
@@ -1496,110 +2169,110 @@
       <c r="AO3" s="41"/>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="53"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="61" t="s">
+      <c r="L4" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="P4" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="S4" s="61" t="s">
+      <c r="S4" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="61" t="s">
+      <c r="T4" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="61" t="s">
+      <c r="W4" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="61" t="s">
+      <c r="X4" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="61" t="s">
+      <c r="Y4" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="Z4" s="61" t="s">
+      <c r="Z4" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="AA4" s="61" t="s">
+      <c r="AA4" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="AB4" s="61" t="s">
+      <c r="AB4" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="AC4" s="61" t="s">
+      <c r="AC4" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AD4" s="61" t="s">
+      <c r="AD4" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="AE4" s="61" t="s">
+      <c r="AE4" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="AF4" s="61" t="s">
+      <c r="AF4" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="AG4" s="61" t="s">
+      <c r="AG4" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="AH4" s="61" t="s">
+      <c r="AH4" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="AI4" s="61" t="s">
+      <c r="AI4" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="AJ4" s="61" t="s">
+      <c r="AJ4" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="AK4" s="61" t="s">
+      <c r="AK4" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="AL4" s="61" t="s">
+      <c r="AL4" s="50" t="s">
         <v>69</v>
       </c>
       <c r="AM4" s="41"/>
@@ -1607,107 +2280,107 @@
       <c r="AO4" s="41"/>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" s="53"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="68" t="s">
+      <c r="N5" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="O5" s="68" t="s">
+      <c r="O5" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P5" s="68" t="s">
+      <c r="P5" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="68" t="s">
+      <c r="Q5" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="R5" s="68" t="s">
+      <c r="R5" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="S5" s="68" t="s">
+      <c r="S5" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="T5" s="68" t="s">
+      <c r="T5" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="U5" s="68" t="s">
+      <c r="U5" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="V5" s="68" t="s">
+      <c r="V5" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="W5" s="68" t="s">
+      <c r="W5" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="X5" s="68" t="s">
+      <c r="X5" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="Y5" s="68" t="s">
+      <c r="Y5" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="Z5" s="68" t="s">
+      <c r="Z5" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="AA5" s="68" t="s">
+      <c r="AA5" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="AB5" s="68" t="s">
+      <c r="AB5" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="AC5" s="68" t="s">
+      <c r="AC5" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="AD5" s="68" t="s">
+      <c r="AD5" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="AE5" s="68" t="s">
+      <c r="AE5" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="AF5" s="68" t="s">
+      <c r="AF5" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="AG5" s="68" t="s">
+      <c r="AG5" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="AH5" s="68" t="s">
+      <c r="AH5" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="AI5" s="68" t="s">
+      <c r="AI5" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="AJ5" s="68" t="s">
+      <c r="AJ5" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="AK5" s="68" t="s">
+      <c r="AK5" s="57" t="s">
         <v>101</v>
       </c>
       <c r="AL5" s="14"/>
@@ -1716,7 +2389,7 @@
       <c r="AO5" s="41"/>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" s="53"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="15">
         <v>1</v>
       </c>
@@ -1726,7 +2399,7 @@
       <c r="D6" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="53" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="18">
@@ -1833,7 +2506,7 @@
       <c r="AO6" s="41"/>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" s="53"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="20">
         <v>2</v>
       </c>
@@ -1843,7 +2516,7 @@
       <c r="D7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="54" t="s">
         <v>72</v>
       </c>
       <c r="F7" s="24">
@@ -1950,7 +2623,7 @@
       <c r="AO7" s="41"/>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" s="53"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="15">
         <v>3</v>
       </c>
@@ -1960,7 +2633,7 @@
       <c r="D8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="55" t="s">
         <v>73</v>
       </c>
       <c r="F8" s="27">
@@ -2067,7 +2740,7 @@
       <c r="AO8" s="41"/>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" s="53"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="20">
         <v>4</v>
       </c>
@@ -2077,7 +2750,7 @@
       <c r="D9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="54" t="s">
         <v>74</v>
       </c>
       <c r="F9" s="24">
@@ -2184,7 +2857,7 @@
       <c r="AO9" s="41"/>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" s="53"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="15">
         <v>5</v>
       </c>
@@ -2194,7 +2867,7 @@
       <c r="D10" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="55" t="s">
         <v>75</v>
       </c>
       <c r="F10" s="27">
@@ -2301,7 +2974,7 @@
       <c r="AO10" s="41"/>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" s="53"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="20">
         <v>6</v>
       </c>
@@ -2311,7 +2984,7 @@
       <c r="D11" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="54" t="s">
         <v>76</v>
       </c>
       <c r="F11" s="24">
@@ -2418,7 +3091,7 @@
       <c r="AO11" s="41"/>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" s="53"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="15">
         <v>7</v>
       </c>
@@ -2428,7 +3101,7 @@
       <c r="D12" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="55" t="s">
         <v>77</v>
       </c>
       <c r="F12" s="27">
@@ -2535,7 +3208,7 @@
       <c r="AO12" s="41"/>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" s="53"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="20">
         <v>8</v>
       </c>
@@ -2545,7 +3218,7 @@
       <c r="D13" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="54" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="24">
@@ -2652,7 +3325,7 @@
       <c r="AO13" s="41"/>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" s="53"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="15">
         <v>9</v>
       </c>
@@ -2662,7 +3335,7 @@
       <c r="D14" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="55" t="s">
         <v>79</v>
       </c>
       <c r="F14" s="27">
@@ -2769,7 +3442,7 @@
       <c r="AO14" s="41"/>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" s="53"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="20">
         <v>10</v>
       </c>
@@ -2779,7 +3452,7 @@
       <c r="D15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="54" t="s">
         <v>80</v>
       </c>
       <c r="F15" s="24">
@@ -2886,7 +3559,7 @@
       <c r="AO15" s="41"/>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" s="53"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="15">
         <v>11</v>
       </c>
@@ -2896,7 +3569,7 @@
       <c r="D16" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="55" t="s">
         <v>102</v>
       </c>
       <c r="F16" s="27">
@@ -3003,7 +3676,7 @@
       <c r="AO16" s="41"/>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" s="53"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="20">
         <v>12</v>
       </c>
@@ -3013,7 +3686,7 @@
       <c r="D17" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="54" t="s">
         <v>81</v>
       </c>
       <c r="F17" s="24">
@@ -3120,7 +3793,7 @@
       <c r="AO17" s="41"/>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" s="53"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="15">
         <v>13</v>
       </c>
@@ -3130,7 +3803,7 @@
       <c r="D18" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="55" t="s">
         <v>82</v>
       </c>
       <c r="F18" s="27">
@@ -3237,7 +3910,7 @@
       <c r="AO18" s="41"/>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" s="53"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="20">
         <v>14</v>
       </c>
@@ -3247,7 +3920,7 @@
       <c r="D19" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="54" t="s">
         <v>83</v>
       </c>
       <c r="F19" s="24">
@@ -3354,7 +4027,7 @@
       <c r="AO19" s="41"/>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" s="53"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="15">
         <v>15</v>
       </c>
@@ -3364,7 +4037,7 @@
       <c r="D20" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="55" t="s">
         <v>84</v>
       </c>
       <c r="F20" s="27">
@@ -3471,7 +4144,7 @@
       <c r="AO20" s="41"/>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" s="53"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="20">
         <v>16</v>
       </c>
@@ -3481,7 +4154,7 @@
       <c r="D21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="54" t="s">
         <v>85</v>
       </c>
       <c r="F21" s="24">
@@ -3588,7 +4261,7 @@
       <c r="AO21" s="41"/>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" s="53"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="15">
         <v>17</v>
       </c>
@@ -3598,7 +4271,7 @@
       <c r="D22" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="55" t="s">
         <v>86</v>
       </c>
       <c r="F22" s="27">
@@ -3705,7 +4378,7 @@
       <c r="AO22" s="41"/>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" s="53"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="20">
         <v>18</v>
       </c>
@@ -3715,7 +4388,7 @@
       <c r="D23" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="54" t="s">
         <v>87</v>
       </c>
       <c r="F23" s="24">
@@ -3822,7 +4495,7 @@
       <c r="AO23" s="41"/>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" s="53"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="15">
         <v>19</v>
       </c>
@@ -3832,7 +4505,7 @@
       <c r="D24" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="55" t="s">
         <v>88</v>
       </c>
       <c r="F24" s="27">
@@ -3939,7 +4612,7 @@
       <c r="AO24" s="41"/>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" s="53"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="20">
         <v>20</v>
       </c>
@@ -3949,7 +4622,7 @@
       <c r="D25" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="54" t="s">
         <v>89</v>
       </c>
       <c r="F25" s="24">
@@ -4056,7 +4729,7 @@
       <c r="AO25" s="41"/>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" s="53"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="15">
         <v>21</v>
       </c>
@@ -4066,7 +4739,7 @@
       <c r="D26" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="66" t="s">
+      <c r="E26" s="55" t="s">
         <v>90</v>
       </c>
       <c r="F26" s="27">
@@ -4173,7 +4846,7 @@
       <c r="AO26" s="41"/>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" s="53"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="20">
         <v>22</v>
       </c>
@@ -4183,7 +4856,7 @@
       <c r="D27" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="54" t="s">
         <v>91</v>
       </c>
       <c r="F27" s="24">
@@ -4290,7 +4963,7 @@
       <c r="AO27" s="41"/>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" s="53"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="15">
         <v>23</v>
       </c>
@@ -4300,7 +4973,7 @@
       <c r="D28" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="55" t="s">
         <v>92</v>
       </c>
       <c r="F28" s="27">
@@ -4407,7 +5080,7 @@
       <c r="AO28" s="41"/>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" s="53"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="20">
         <v>24</v>
       </c>
@@ -4417,7 +5090,7 @@
       <c r="D29" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="54" t="s">
         <v>93</v>
       </c>
       <c r="F29" s="24">
@@ -4524,7 +5197,7 @@
       <c r="AO29" s="41"/>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" s="53"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="15">
         <v>25</v>
       </c>
@@ -4534,7 +5207,7 @@
       <c r="D30" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="55" t="s">
         <v>94</v>
       </c>
       <c r="F30" s="27">
@@ -4641,7 +5314,7 @@
       <c r="AO30" s="41"/>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" s="53"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="20">
         <v>26</v>
       </c>
@@ -4651,7 +5324,7 @@
       <c r="D31" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="E31" s="54" t="s">
         <v>95</v>
       </c>
       <c r="F31" s="24">
@@ -4758,7 +5431,7 @@
       <c r="AO31" s="41"/>
     </row>
     <row r="32" spans="1:41">
-      <c r="A32" s="53"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="15">
         <v>27</v>
       </c>
@@ -4768,7 +5441,7 @@
       <c r="D32" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="55" t="s">
         <v>96</v>
       </c>
       <c r="F32" s="27">
@@ -4875,7 +5548,7 @@
       <c r="AO32" s="41"/>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="53"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="20">
         <v>28</v>
       </c>
@@ -4885,7 +5558,7 @@
       <c r="D33" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E33" s="54" t="s">
         <v>81</v>
       </c>
       <c r="F33" s="24">
@@ -4992,7 +5665,7 @@
       <c r="AO33" s="41"/>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="53"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="15">
         <v>29</v>
       </c>
@@ -5002,7 +5675,7 @@
       <c r="D34" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="55" t="s">
         <v>82</v>
       </c>
       <c r="F34" s="27">
@@ -5109,7 +5782,7 @@
       <c r="AO34" s="41"/>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="53"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="20">
         <v>30</v>
       </c>
@@ -5119,7 +5792,7 @@
       <c r="D35" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="E35" s="54" t="s">
         <v>83</v>
       </c>
       <c r="F35" s="24">
@@ -5226,7 +5899,7 @@
       <c r="AO35" s="41"/>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="53"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="15">
         <v>31</v>
       </c>
@@ -5236,7 +5909,7 @@
       <c r="D36" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="55" t="s">
         <v>84</v>
       </c>
       <c r="F36" s="27">
@@ -5343,7 +6016,7 @@
       <c r="AO36" s="41"/>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="53"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="20">
         <v>32</v>
       </c>
@@ -5353,7 +6026,7 @@
       <c r="D37" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="65" t="s">
+      <c r="E37" s="54" t="s">
         <v>85</v>
       </c>
       <c r="F37" s="24">
@@ -5460,7 +6133,7 @@
       <c r="AO37" s="41"/>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="53"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="15">
         <v>33</v>
       </c>
@@ -5575,8 +6248,8 @@
     <row r="39" spans="1:41">
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
       <c r="H39" s="41"/>
@@ -11622,36 +12295,3591 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C309"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="43" customFormat="1">
+      <c r="A1" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="68">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="68">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="70">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="70">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="71">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="71">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="72">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="72">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="72">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="73">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="73">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="73">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="73">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="73">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="73">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="73">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="73">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="73">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="73">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="73">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="74">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="74">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="74">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="74">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="74">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="74">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="74">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="74">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="67">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="67">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="67">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="67">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="67">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="67">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="67">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="67">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="67">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="67">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="75">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="75">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="75">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="75">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="75">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="75">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="75">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="75">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="75">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="75">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="75">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="75">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="75">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="75">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="75">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="75">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="67">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="67">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="67">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="67">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="67">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="67">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="67">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="67">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="67">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="67">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="67">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="67">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="67">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="67">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="67">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="67">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="67">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="67">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="67">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="67">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="67">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="67">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="67">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="67">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="67">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="67">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="76">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="76">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="76">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B89" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="76">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" s="76">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="76">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="76">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="67">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="67">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="67">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="67">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B102" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="67">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" s="67">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="67">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="67">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" s="67">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="67">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B108" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="67">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="67">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="67">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="67">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="67">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="67">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="67">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" s="67">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="67">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="67">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="67">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B119" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119" s="67">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="B120" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="67">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="67">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" s="67">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C123" s="67">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B124" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="67">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B125" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="67">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B127" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" s="67">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="67">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B129" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" s="67">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B130" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="67">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="67">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B132" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="67">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B133" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="67">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="67">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135" s="67">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B136" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="67">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B137" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="67">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" s="67">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139" s="67">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="67">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" s="67">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="67">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="67">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B144" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" s="67">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="67">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B146" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="67">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="67">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C148" s="67">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="67">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150" s="67">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C151" s="67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C153" s="67">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C154" s="67">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" s="67">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" s="67">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B157" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157" s="67">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B158" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C158" s="67">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="67">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B160" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="67">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="67">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="67">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B163" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C163" s="67">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B164" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C164" s="67">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B165" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="67">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B166" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C166" s="67">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167" s="67">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B168" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="67">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B169" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="67">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B170" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" s="67">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" s="67">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C172" s="67">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="67">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C174" s="67">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B175" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="67">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C176" s="67">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" s="67">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="67">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B179" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C179" s="67">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C181" s="67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B182" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" s="67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B183" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C183" s="67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B184" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C184" s="67">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C185" s="67">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186" s="67">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C187" s="67">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188" s="67">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B189" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C189" s="67">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B190" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C190" s="67">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C191" s="67">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B192" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" s="67">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C193" s="67">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" s="67">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C195" s="67">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196" s="67">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="67">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" s="67">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C199" s="67">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B200" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" s="67">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C201" s="67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B202" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C202" s="67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C203" s="67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B204" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" s="67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" s="67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B206" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" s="67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B207" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" s="67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B208" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C208" s="67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B209" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" s="67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" s="67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B211" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" s="67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B212" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" s="67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B213" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C213" s="67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B214" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C214" s="67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B215" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215" s="67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B216" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C216" s="67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" s="67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C219" s="67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B220" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" s="67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B221" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C221" s="67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B222" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C222" s="67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B223" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C223" s="67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" s="67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C225" s="67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226" s="67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C227" s="67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B228" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C228" s="67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B229" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C229" s="67">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C230" s="67">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B231" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231" s="67">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B232" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C232" s="67">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B233" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" s="67">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B234" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C234" s="67">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C235" s="67">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B236" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C236" s="67">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B237" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" s="67">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B238" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C238" s="67">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B239" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C240" s="67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C241" s="67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B242" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" s="67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B243" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C243" s="67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B244" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C244" s="67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" s="67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B246" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B247" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C247" s="67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B248" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C248" s="67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C249" s="67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B250" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" s="67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B251" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" s="67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B252" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B253" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" s="67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B254" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C254" s="67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B255" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C255" s="67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B256" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C256" s="67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C257" s="67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B258" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C258" s="67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B259" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259" s="67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B260" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C260" s="67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B261" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C261" s="67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B262" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262" s="67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B263" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" s="67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B264" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C264" s="67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B265" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C265" s="67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B266" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C266" s="67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B267" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267" s="67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B268" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C268" s="67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B269" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C269" s="67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B270" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C270" s="67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B271" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C271" s="67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B272" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C272" s="67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B273" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C273" s="67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C274" s="67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B275" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C275" s="67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B276" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276" s="67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C277" s="67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B278" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C278" s="67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B279" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C279" s="67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B280" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C280" s="67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B281" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" s="67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B282" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" s="67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B283" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C283" s="67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B284" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C284" s="67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B285" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C285" s="67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B286" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C286" s="67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B287" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C287" s="67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B288" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C288" s="67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B289" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C289" s="67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B290" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C290" s="67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B291" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" s="67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B292" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C292" s="67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B293" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C293" s="67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B294" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C294" s="67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B295" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" s="67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B296" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C296" s="67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B297" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C297" s="67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B298" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C298" s="67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B299" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" s="67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B300" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" s="67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B301" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C301" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B302" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C302" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B303" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C303" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B304" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C304" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C305" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B306" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C306" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B307" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C307" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B308" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C308" s="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B309" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C309" s="67">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C22:C29">
+    <cfRule type="cellIs" dxfId="50" priority="21" operator="between">
+      <formula>300</formula>
+      <formula>400</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="22" operator="between">
+      <formula>400</formula>
+      <formula>500</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="23" operator="between">
+      <formula>400</formula>
+      <formula>500</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="24" operator="greaterThan">
+      <formula>400</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="25" operator="greaterThan">
+      <formula>500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C29">
+    <cfRule type="cellIs" dxfId="45" priority="20" operator="between">
+      <formula>200</formula>
+      <formula>300</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C29">
+    <cfRule type="cellIs" dxfId="44" priority="17" operator="between">
+      <formula>150</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="18" operator="between">
+      <formula>180</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="19" operator="between">
+      <formula>100</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:C39 C58:C83 C93:C183">
+    <cfRule type="cellIs" dxfId="41" priority="16" operator="between">
+      <formula>130</formula>
+      <formula>150</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C58:C83 C93:C183">
+    <cfRule type="cellIs" dxfId="40" priority="15" operator="between">
+      <formula>110</formula>
+      <formula>130</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:C83 C93:C183">
+    <cfRule type="cellIs" dxfId="39" priority="14" operator="between">
+      <formula>100</formula>
+      <formula>110</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:C83 C93:C183">
+    <cfRule type="cellIs" dxfId="38" priority="13" operator="between">
+      <formula>80</formula>
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93:C183">
+    <cfRule type="cellIs" dxfId="37" priority="12" operator="between">
+      <formula>70</formula>
+      <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93:C183">
+    <cfRule type="cellIs" dxfId="36" priority="11" operator="between">
+      <formula>60</formula>
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109:C183">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="between">
+      <formula>50</formula>
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127:C183">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="between">
+      <formula>40</formula>
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:C183">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="between">
+      <formula>30</formula>
+      <formula>40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C184:C196">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="between">
+      <formula>25</formula>
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C197:C309">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="between">
+      <formula>23</formula>
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C209:C309">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="between">
+      <formula>20</formula>
+      <formula>23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C229:C309">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="between">
+      <formula>18</formula>
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C239:C309">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="between">
+      <formula>15</formula>
+      <formula>18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C264:C309">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="between">
+      <formula>12</formula>
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C293:C309">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="between">
+      <formula>10</formula>
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL122"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="2.109375" customWidth="1"/>
     <col min="2" max="2" width="5.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="6.77734375" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" customWidth="1"/>
     <col min="8" max="8" width="5.5546875" customWidth="1"/>
     <col min="9" max="9" width="4.88671875" customWidth="1"/>
-    <col min="10" max="10" width="5.21875" customWidth="1"/>
-    <col min="11" max="11" width="5.44140625" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" customWidth="1"/>
     <col min="12" max="13" width="5.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
@@ -11689,11 +15917,11 @@
       <c r="AL1" s="39"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -11731,11 +15959,11 @@
       <c r="AL2" s="39"/>
     </row>
     <row r="3" spans="1:38">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
@@ -11837,7 +16065,7 @@
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="50"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="6" t="s">
@@ -11945,7 +16173,7 @@
       </c>
     </row>
     <row r="5" spans="1:38" ht="13.8" thickBot="1">
-      <c r="A5" s="50"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
@@ -12051,7 +16279,7 @@
       <c r="AL5" s="14"/>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="50"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="15">
         <v>1</v>
       </c>
@@ -12079,9 +16307,6 @@
       <c r="J6">
         <v>6</v>
       </c>
-      <c r="K6">
-        <v>17</v>
-      </c>
       <c r="L6">
         <v>0</v>
       </c>
@@ -12097,9 +16322,6 @@
       <c r="P6">
         <v>0</v>
       </c>
-      <c r="Q6">
-        <v>22</v>
-      </c>
       <c r="R6">
         <v>1</v>
       </c>
@@ -12124,9 +16346,6 @@
       <c r="Y6">
         <v>0</v>
       </c>
-      <c r="Z6">
-        <v>38</v>
-      </c>
       <c r="AA6">
         <v>0</v>
       </c>
@@ -12165,7 +16384,7 @@
       </c>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="50"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="20">
         <v>2</v>
       </c>
@@ -12178,9 +16397,6 @@
       <c r="E7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F7">
-        <v>52</v>
-      </c>
       <c r="G7">
         <v>1</v>
       </c>
@@ -12190,33 +16406,15 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>24</v>
-      </c>
-      <c r="L7">
-        <v>58</v>
-      </c>
       <c r="M7">
         <v>3</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
-      <c r="O7">
-        <v>30</v>
-      </c>
-      <c r="P7">
-        <v>14</v>
-      </c>
-      <c r="Q7">
-        <v>21</v>
-      </c>
       <c r="S7">
         <v>2</v>
       </c>
-      <c r="T7">
-        <v>66</v>
-      </c>
       <c r="U7">
         <v>7</v>
       </c>
@@ -12226,42 +16424,12 @@
       <c r="W7">
         <v>1</v>
       </c>
-      <c r="X7">
-        <v>17</v>
-      </c>
-      <c r="Y7">
-        <v>38</v>
-      </c>
-      <c r="Z7">
-        <v>16</v>
-      </c>
-      <c r="AA7">
-        <v>35</v>
-      </c>
-      <c r="AB7">
-        <v>43</v>
-      </c>
-      <c r="AC7">
-        <v>25</v>
-      </c>
-      <c r="AD7">
-        <v>19</v>
-      </c>
-      <c r="AE7">
-        <v>75</v>
-      </c>
       <c r="AF7">
         <v>6</v>
       </c>
-      <c r="AG7">
-        <v>11</v>
-      </c>
       <c r="AI7">
         <v>2</v>
       </c>
-      <c r="AJ7">
-        <v>40</v>
-      </c>
       <c r="AK7">
         <v>0</v>
       </c>
@@ -12270,7 +16438,7 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" s="50"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="15">
         <v>3</v>
       </c>
@@ -12283,23 +16451,11 @@
       <c r="E8" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8">
-        <v>16</v>
-      </c>
       <c r="I8">
         <v>0</v>
-      </c>
-      <c r="J8">
-        <v>41</v>
-      </c>
-      <c r="L8">
-        <v>42</v>
       </c>
       <c r="M8">
         <v>4</v>
@@ -12310,45 +16466,15 @@
       <c r="O8">
         <v>1</v>
       </c>
-      <c r="Q8">
-        <v>24</v>
-      </c>
-      <c r="S8">
-        <v>53</v>
-      </c>
-      <c r="T8">
-        <v>11</v>
-      </c>
       <c r="U8">
         <v>6</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
-      <c r="X8">
-        <v>24</v>
-      </c>
-      <c r="Z8">
-        <v>15</v>
-      </c>
-      <c r="AB8">
-        <v>18</v>
-      </c>
-      <c r="AC8">
-        <v>13</v>
-      </c>
-      <c r="AD8">
-        <v>20</v>
-      </c>
       <c r="AE8">
         <v>2</v>
       </c>
-      <c r="AG8">
-        <v>10</v>
-      </c>
-      <c r="AJ8">
-        <v>32</v>
-      </c>
       <c r="AK8">
         <v>0</v>
       </c>
@@ -12357,7 +16483,7 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="50"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="20">
         <v>4</v>
       </c>
@@ -12373,47 +16499,23 @@
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9">
-        <v>25</v>
-      </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>43</v>
-      </c>
       <c r="K9">
         <v>3</v>
       </c>
-      <c r="L9">
-        <v>40</v>
-      </c>
-      <c r="M9">
-        <v>33</v>
-      </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9">
-        <v>13</v>
-      </c>
-      <c r="Q9">
-        <v>37</v>
-      </c>
-      <c r="R9">
-        <v>20</v>
-      </c>
       <c r="S9">
         <v>0</v>
-      </c>
-      <c r="T9">
-        <v>16</v>
       </c>
       <c r="U9">
         <v>4</v>
@@ -12424,39 +16526,12 @@
       <c r="W9">
         <v>7</v>
       </c>
-      <c r="X9">
-        <v>33</v>
-      </c>
-      <c r="Y9">
-        <v>27</v>
-      </c>
-      <c r="Z9">
-        <v>25</v>
-      </c>
-      <c r="AA9">
-        <v>62</v>
-      </c>
-      <c r="AC9">
-        <v>39</v>
-      </c>
-      <c r="AD9">
-        <v>27</v>
-      </c>
       <c r="AE9">
         <v>3</v>
       </c>
-      <c r="AF9">
-        <v>43</v>
-      </c>
-      <c r="AG9">
-        <v>14</v>
-      </c>
       <c r="AI9">
         <v>6</v>
       </c>
-      <c r="AJ9">
-        <v>20</v>
-      </c>
       <c r="AK9">
         <v>0</v>
       </c>
@@ -12465,7 +16540,7 @@
       </c>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="50"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="15">
         <v>5</v>
       </c>
@@ -12481,9 +16556,6 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
@@ -12579,7 +16651,7 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="50"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="20">
         <v>6</v>
       </c>
@@ -12598,9 +16670,6 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>21</v>
-      </c>
       <c r="K11">
         <v>1</v>
       </c>
@@ -12610,21 +16679,12 @@
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>43</v>
-      </c>
-      <c r="O11">
-        <v>37</v>
-      </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11">
-        <v>13</v>
-      </c>
       <c r="S11">
         <v>0</v>
       </c>
@@ -12637,14 +16697,8 @@
       <c r="V11">
         <v>0</v>
       </c>
-      <c r="W11">
-        <v>71</v>
-      </c>
       <c r="X11">
         <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>25</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -12664,9 +16718,6 @@
       <c r="AE11">
         <v>0</v>
       </c>
-      <c r="AF11">
-        <v>13</v>
-      </c>
       <c r="AG11">
         <v>0</v>
       </c>
@@ -12687,7 +16738,7 @@
       </c>
     </row>
     <row r="12" spans="1:38">
-      <c r="A12" s="50"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="15">
         <v>7</v>
       </c>
@@ -12715,9 +16766,6 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>16</v>
-      </c>
       <c r="L12">
         <v>0</v>
       </c>
@@ -12736,15 +16784,9 @@
       <c r="Q12">
         <v>7</v>
       </c>
-      <c r="R12">
-        <v>22</v>
-      </c>
       <c r="S12">
         <v>1</v>
       </c>
-      <c r="T12">
-        <v>61</v>
-      </c>
       <c r="U12">
         <v>8</v>
       </c>
@@ -12754,41 +16796,14 @@
       <c r="W12">
         <v>7</v>
       </c>
-      <c r="X12">
-        <v>26</v>
-      </c>
-      <c r="Y12">
-        <v>67</v>
-      </c>
-      <c r="Z12">
-        <v>52</v>
-      </c>
-      <c r="AA12">
-        <v>30</v>
-      </c>
-      <c r="AB12">
-        <v>27</v>
-      </c>
       <c r="AC12">
         <v>1</v>
       </c>
-      <c r="AD12">
-        <v>11</v>
-      </c>
       <c r="AE12">
         <v>0</v>
       </c>
-      <c r="AF12">
-        <v>23</v>
-      </c>
       <c r="AG12">
         <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>14</v>
-      </c>
-      <c r="AI12">
-        <v>41</v>
       </c>
       <c r="AJ12">
         <v>4</v>
@@ -12801,7 +16816,7 @@
       </c>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="50"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="20">
         <v>8</v>
       </c>
@@ -12814,9 +16829,6 @@
       <c r="E13" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
@@ -12847,9 +16859,6 @@
       <c r="P13">
         <v>0</v>
       </c>
-      <c r="Q13">
-        <v>21</v>
-      </c>
       <c r="R13">
         <v>0</v>
       </c>
@@ -12886,21 +16895,12 @@
       <c r="AC13">
         <v>0</v>
       </c>
-      <c r="AD13">
-        <v>16</v>
-      </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
         <v>6</v>
       </c>
-      <c r="AG13">
-        <v>19</v>
-      </c>
-      <c r="AH13">
-        <v>15</v>
-      </c>
       <c r="AI13">
         <v>0</v>
       </c>
@@ -12915,7 +16915,7 @@
       </c>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" s="50"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="15">
         <v>9</v>
       </c>
@@ -12940,17 +16940,11 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>66</v>
-      </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
-      </c>
-      <c r="N14">
-        <v>24</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -12958,9 +16952,6 @@
       <c r="P14">
         <v>6</v>
       </c>
-      <c r="Q14">
-        <v>13</v>
-      </c>
       <c r="S14">
         <v>0</v>
       </c>
@@ -12973,36 +16964,6 @@
       <c r="V14">
         <v>2</v>
       </c>
-      <c r="X14">
-        <v>55</v>
-      </c>
-      <c r="Z14">
-        <v>17</v>
-      </c>
-      <c r="AA14">
-        <v>50</v>
-      </c>
-      <c r="AB14">
-        <v>64</v>
-      </c>
-      <c r="AC14">
-        <v>12</v>
-      </c>
-      <c r="AD14">
-        <v>43</v>
-      </c>
-      <c r="AE14">
-        <v>14</v>
-      </c>
-      <c r="AF14">
-        <v>39</v>
-      </c>
-      <c r="AG14">
-        <v>27</v>
-      </c>
-      <c r="AI14">
-        <v>10</v>
-      </c>
       <c r="AK14">
         <v>0</v>
       </c>
@@ -13011,7 +16972,7 @@
       </c>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="50"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="20">
         <v>10</v>
       </c>
@@ -13039,63 +17000,18 @@
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15">
-        <v>33</v>
-      </c>
-      <c r="O15">
-        <v>69</v>
-      </c>
       <c r="P15">
         <v>9</v>
       </c>
-      <c r="Q15">
-        <v>11</v>
-      </c>
-      <c r="R15">
-        <v>72</v>
-      </c>
       <c r="S15">
         <v>1</v>
       </c>
-      <c r="T15">
-        <v>14</v>
-      </c>
       <c r="U15">
         <v>5</v>
       </c>
-      <c r="V15">
-        <v>12</v>
-      </c>
-      <c r="W15">
-        <v>10</v>
-      </c>
-      <c r="X15">
-        <v>46</v>
-      </c>
-      <c r="Z15">
-        <v>68</v>
-      </c>
-      <c r="AA15">
-        <v>73</v>
-      </c>
-      <c r="AC15">
-        <v>58</v>
-      </c>
-      <c r="AD15">
-        <v>31</v>
-      </c>
-      <c r="AE15">
-        <v>14</v>
-      </c>
-      <c r="AG15">
-        <v>29</v>
-      </c>
       <c r="AI15">
         <v>8</v>
       </c>
-      <c r="AJ15">
-        <v>33</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
@@ -13104,7 +17020,7 @@
       </c>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="50"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="15">
         <v>11</v>
       </c>
@@ -13215,7 +17131,7 @@
       </c>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" s="50"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="20">
         <v>12</v>
       </c>
@@ -13231,9 +17147,6 @@
       <c r="F17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>37</v>
-      </c>
       <c r="J17">
         <v>0</v>
       </c>
@@ -13273,18 +17186,12 @@
       <c r="X17">
         <v>0</v>
       </c>
-      <c r="Y17">
-        <v>10</v>
-      </c>
       <c r="Z17">
         <v>4</v>
       </c>
       <c r="AA17">
         <v>3</v>
       </c>
-      <c r="AB17">
-        <v>13</v>
-      </c>
       <c r="AC17">
         <v>0</v>
       </c>
@@ -13294,15 +17201,6 @@
       <c r="AE17">
         <v>3</v>
       </c>
-      <c r="AF17">
-        <v>20</v>
-      </c>
-      <c r="AG17">
-        <v>46</v>
-      </c>
-      <c r="AH17">
-        <v>23</v>
-      </c>
       <c r="AI17">
         <v>0</v>
       </c>
@@ -13317,7 +17215,7 @@
       </c>
     </row>
     <row r="18" spans="1:38">
-      <c r="A18" s="50"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="15">
         <v>13</v>
       </c>
@@ -13333,9 +17231,6 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>71</v>
-      </c>
       <c r="J18">
         <v>2</v>
       </c>
@@ -13354,15 +17249,9 @@
       <c r="Q18">
         <v>2</v>
       </c>
-      <c r="R18">
-        <v>14</v>
-      </c>
       <c r="S18">
         <v>2</v>
       </c>
-      <c r="T18">
-        <v>31</v>
-      </c>
       <c r="U18">
         <v>0</v>
       </c>
@@ -13375,9 +17264,6 @@
       <c r="X18">
         <v>1</v>
       </c>
-      <c r="Y18">
-        <v>56</v>
-      </c>
       <c r="Z18">
         <v>0</v>
       </c>
@@ -13396,9 +17282,6 @@
       <c r="AF18">
         <v>1</v>
       </c>
-      <c r="AG18">
-        <v>11</v>
-      </c>
       <c r="AH18">
         <v>8</v>
       </c>
@@ -13416,7 +17299,7 @@
       </c>
     </row>
     <row r="19" spans="1:38">
-      <c r="A19" s="50"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="20">
         <v>14</v>
       </c>
@@ -13441,9 +17324,6 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>15</v>
-      </c>
       <c r="K19">
         <v>0</v>
       </c>
@@ -13530,7 +17410,7 @@
       </c>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" s="50"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="15">
         <v>15</v>
       </c>
@@ -13546,9 +17426,6 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>54</v>
-      </c>
       <c r="J20">
         <v>3</v>
       </c>
@@ -13561,9 +17438,6 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20">
-        <v>14</v>
-      </c>
       <c r="P20">
         <v>0</v>
       </c>
@@ -13597,9 +17471,6 @@
       <c r="Z20">
         <v>0</v>
       </c>
-      <c r="AA20">
-        <v>18</v>
-      </c>
       <c r="AB20">
         <v>0</v>
       </c>
@@ -13635,7 +17506,7 @@
       </c>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" s="50"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="20">
         <v>16</v>
       </c>
@@ -13651,12 +17522,6 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21">
-        <v>16</v>
-      </c>
-      <c r="I21">
-        <v>10</v>
-      </c>
       <c r="J21">
         <v>0</v>
       </c>
@@ -13669,12 +17534,6 @@
       <c r="M21">
         <v>1</v>
       </c>
-      <c r="N21">
-        <v>19</v>
-      </c>
-      <c r="O21">
-        <v>21</v>
-      </c>
       <c r="P21">
         <v>1</v>
       </c>
@@ -13702,9 +17561,6 @@
       <c r="X21">
         <v>3</v>
       </c>
-      <c r="Y21">
-        <v>61</v>
-      </c>
       <c r="Z21">
         <v>0</v>
       </c>
@@ -13720,18 +17576,12 @@
       <c r="AD21">
         <v>0</v>
       </c>
-      <c r="AE21">
-        <v>23</v>
-      </c>
       <c r="AF21">
         <v>6</v>
       </c>
       <c r="AG21">
         <v>1</v>
       </c>
-      <c r="AH21">
-        <v>12</v>
-      </c>
       <c r="AI21">
         <v>0</v>
       </c>
@@ -13746,7 +17596,7 @@
       </c>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="50"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="15">
         <v>17</v>
       </c>
@@ -13765,9 +17615,6 @@
       <c r="G22">
         <v>9</v>
       </c>
-      <c r="H22">
-        <v>22</v>
-      </c>
       <c r="I22">
         <v>0</v>
       </c>
@@ -13860,7 +17707,7 @@
       </c>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="50"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="20">
         <v>18</v>
       </c>
@@ -13876,12 +17723,6 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="H23">
-        <v>11</v>
-      </c>
-      <c r="I23">
-        <v>22</v>
-      </c>
       <c r="J23">
         <v>0</v>
       </c>
@@ -13927,9 +17768,6 @@
       <c r="Y23">
         <v>6</v>
       </c>
-      <c r="Z23">
-        <v>12</v>
-      </c>
       <c r="AA23">
         <v>2</v>
       </c>
@@ -13968,7 +17806,7 @@
       </c>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" s="50"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="15">
         <v>19</v>
       </c>
@@ -13984,27 +17822,12 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24">
-        <v>41</v>
-      </c>
-      <c r="I24">
-        <v>15</v>
-      </c>
-      <c r="J24">
-        <v>11</v>
-      </c>
       <c r="K24">
         <v>7</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="N24">
-        <v>37</v>
-      </c>
-      <c r="O24">
-        <v>23</v>
-      </c>
       <c r="P24">
         <v>0</v>
       </c>
@@ -14076,7 +17899,7 @@
       </c>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" s="50"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="20">
         <v>20</v>
       </c>
@@ -14092,18 +17915,9 @@
       <c r="F25">
         <v>8</v>
       </c>
-      <c r="I25">
-        <v>60</v>
-      </c>
-      <c r="J25">
-        <v>51</v>
-      </c>
       <c r="K25">
         <v>1</v>
       </c>
-      <c r="L25">
-        <v>18</v>
-      </c>
       <c r="M25">
         <v>0</v>
       </c>
@@ -14113,9 +17927,6 @@
       <c r="Q25">
         <v>1</v>
       </c>
-      <c r="R25">
-        <v>59</v>
-      </c>
       <c r="S25">
         <v>0</v>
       </c>
@@ -14134,18 +17945,6 @@
       <c r="Y25">
         <v>2</v>
       </c>
-      <c r="Z25">
-        <v>19</v>
-      </c>
-      <c r="AA25">
-        <v>65</v>
-      </c>
-      <c r="AB25">
-        <v>49</v>
-      </c>
-      <c r="AC25">
-        <v>38</v>
-      </c>
       <c r="AD25">
         <v>1</v>
       </c>
@@ -14175,7 +17974,7 @@
       </c>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" s="50"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="15">
         <v>21</v>
       </c>
@@ -14191,24 +17990,12 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>48</v>
-      </c>
-      <c r="J26">
-        <v>16</v>
-      </c>
       <c r="K26">
         <v>0</v>
-      </c>
-      <c r="L26">
-        <v>17</v>
       </c>
       <c r="M26">
         <v>2</v>
       </c>
-      <c r="N26">
-        <v>23</v>
-      </c>
       <c r="P26">
         <v>0</v>
       </c>
@@ -14254,9 +18041,6 @@
       <c r="AD26">
         <v>1</v>
       </c>
-      <c r="AE26">
-        <v>18</v>
-      </c>
       <c r="AF26">
         <v>1</v>
       </c>
@@ -14280,7 +18064,7 @@
       </c>
     </row>
     <row r="27" spans="1:38">
-      <c r="A27" s="50"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="20">
         <v>22</v>
       </c>
@@ -14293,18 +18077,9 @@
       <c r="E27" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F27">
-        <v>23</v>
-      </c>
-      <c r="I27">
-        <v>73</v>
-      </c>
       <c r="J27">
         <v>2</v>
       </c>
-      <c r="K27">
-        <v>16</v>
-      </c>
       <c r="L27">
         <v>7</v>
       </c>
@@ -14332,14 +18107,8 @@
       <c r="V27">
         <v>0</v>
       </c>
-      <c r="W27">
-        <v>16</v>
-      </c>
       <c r="X27">
         <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>74</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -14382,7 +18151,7 @@
       </c>
     </row>
     <row r="28" spans="1:38">
-      <c r="A28" s="50"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="15">
         <v>23</v>
       </c>
@@ -14398,9 +18167,6 @@
       <c r="F28">
         <v>6</v>
       </c>
-      <c r="G28">
-        <v>58</v>
-      </c>
       <c r="J28">
         <v>1</v>
       </c>
@@ -14413,9 +18179,6 @@
       <c r="M28">
         <v>0</v>
       </c>
-      <c r="O28">
-        <v>53</v>
-      </c>
       <c r="P28">
         <v>0</v>
       </c>
@@ -14446,36 +18209,18 @@
       <c r="Z28">
         <v>0</v>
       </c>
-      <c r="AA28">
-        <v>36</v>
-      </c>
       <c r="AB28">
         <v>2</v>
       </c>
-      <c r="AC28">
-        <v>16</v>
-      </c>
-      <c r="AD28">
-        <v>13</v>
-      </c>
-      <c r="AE28">
-        <v>15</v>
-      </c>
       <c r="AF28">
         <v>3</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
-      <c r="AH28">
-        <v>52</v>
-      </c>
       <c r="AI28">
         <v>0</v>
       </c>
-      <c r="AJ28">
-        <v>38</v>
-      </c>
       <c r="AK28">
         <v>0</v>
       </c>
@@ -14484,7 +18229,7 @@
       </c>
     </row>
     <row r="29" spans="1:38">
-      <c r="A29" s="50"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="20">
         <v>24</v>
       </c>
@@ -14500,12 +18245,6 @@
       <c r="F29">
         <v>4</v>
       </c>
-      <c r="G29">
-        <v>71</v>
-      </c>
-      <c r="I29">
-        <v>72</v>
-      </c>
       <c r="J29">
         <v>8</v>
       </c>
@@ -14515,12 +18254,6 @@
       <c r="M29">
         <v>0</v>
       </c>
-      <c r="N29">
-        <v>67</v>
-      </c>
-      <c r="O29">
-        <v>43</v>
-      </c>
       <c r="Q29">
         <v>2</v>
       </c>
@@ -14545,9 +18278,6 @@
       <c r="X29">
         <v>0</v>
       </c>
-      <c r="Y29">
-        <v>22</v>
-      </c>
       <c r="Z29">
         <v>1</v>
       </c>
@@ -14557,24 +18287,12 @@
       <c r="AB29">
         <v>0</v>
       </c>
-      <c r="AC29">
-        <v>36</v>
-      </c>
       <c r="AD29">
         <v>2</v>
       </c>
-      <c r="AE29">
-        <v>21</v>
-      </c>
       <c r="AF29">
         <v>3</v>
       </c>
-      <c r="AG29">
-        <v>13</v>
-      </c>
-      <c r="AH29">
-        <v>27</v>
-      </c>
       <c r="AI29">
         <v>0</v>
       </c>
@@ -14589,7 +18307,7 @@
       </c>
     </row>
     <row r="30" spans="1:38">
-      <c r="A30" s="50"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="15">
         <v>25</v>
       </c>
@@ -14611,17 +18329,8 @@
       <c r="K30">
         <v>4</v>
       </c>
-      <c r="L30">
-        <v>15</v>
-      </c>
       <c r="M30">
         <v>0</v>
-      </c>
-      <c r="N30">
-        <v>36</v>
-      </c>
-      <c r="O30">
-        <v>49</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -14650,9 +18359,6 @@
       <c r="X30">
         <v>2</v>
       </c>
-      <c r="Y30">
-        <v>19</v>
-      </c>
       <c r="Z30">
         <v>0</v>
       </c>
@@ -14665,21 +18371,9 @@
       <c r="AC30">
         <v>0</v>
       </c>
-      <c r="AD30">
-        <v>19</v>
-      </c>
-      <c r="AE30">
-        <v>34</v>
-      </c>
       <c r="AF30">
         <v>4</v>
       </c>
-      <c r="AG30">
-        <v>16</v>
-      </c>
-      <c r="AH30">
-        <v>21</v>
-      </c>
       <c r="AI30">
         <v>1</v>
       </c>
@@ -14694,7 +18388,7 @@
       </c>
     </row>
     <row r="31" spans="1:38">
-      <c r="A31" s="50"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="20">
         <v>26</v>
       </c>
@@ -14710,18 +18404,6 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31">
-        <v>42</v>
-      </c>
-      <c r="H31">
-        <v>58</v>
-      </c>
-      <c r="I31">
-        <v>48</v>
-      </c>
-      <c r="J31">
-        <v>15</v>
-      </c>
       <c r="K31">
         <v>5</v>
       </c>
@@ -14731,9 +18413,6 @@
       <c r="M31">
         <v>0</v>
       </c>
-      <c r="N31">
-        <v>12</v>
-      </c>
       <c r="P31">
         <v>0</v>
       </c>
@@ -14758,21 +18437,6 @@
       <c r="W31">
         <v>8</v>
       </c>
-      <c r="X31">
-        <v>10</v>
-      </c>
-      <c r="Y31">
-        <v>17</v>
-      </c>
-      <c r="Z31">
-        <v>12</v>
-      </c>
-      <c r="AA31">
-        <v>12</v>
-      </c>
-      <c r="AB31">
-        <v>14</v>
-      </c>
       <c r="AD31">
         <v>7</v>
       </c>
@@ -14785,15 +18449,9 @@
       <c r="AG31">
         <v>2</v>
       </c>
-      <c r="AH31">
-        <v>53</v>
-      </c>
       <c r="AI31">
         <v>1</v>
       </c>
-      <c r="AJ31">
-        <v>49</v>
-      </c>
       <c r="AK31">
         <v>0</v>
       </c>
@@ -14802,7 +18460,7 @@
       </c>
     </row>
     <row r="32" spans="1:38">
-      <c r="A32" s="50"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="15">
         <v>27</v>
       </c>
@@ -14815,15 +18473,6 @@
       <c r="E32" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F32">
-        <v>13</v>
-      </c>
-      <c r="H32">
-        <v>61</v>
-      </c>
-      <c r="I32">
-        <v>16</v>
-      </c>
       <c r="J32">
         <v>3</v>
       </c>
@@ -14839,9 +18488,6 @@
       <c r="P32">
         <v>2</v>
       </c>
-      <c r="Q32">
-        <v>53</v>
-      </c>
       <c r="R32">
         <v>2</v>
       </c>
@@ -14863,9 +18509,6 @@
       <c r="X32">
         <v>1</v>
       </c>
-      <c r="Y32">
-        <v>21</v>
-      </c>
       <c r="Z32">
         <v>0</v>
       </c>
@@ -14907,7 +18550,7 @@
       </c>
     </row>
     <row r="33" spans="1:38">
-      <c r="A33" s="50"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="20">
         <v>28</v>
       </c>
@@ -14923,18 +18566,6 @@
       <c r="F33">
         <v>2</v>
       </c>
-      <c r="G33">
-        <v>69</v>
-      </c>
-      <c r="H33">
-        <v>43</v>
-      </c>
-      <c r="I33">
-        <v>23</v>
-      </c>
-      <c r="J33">
-        <v>13</v>
-      </c>
       <c r="K33">
         <v>0</v>
       </c>
@@ -14944,9 +18575,6 @@
       <c r="M33">
         <v>0</v>
       </c>
-      <c r="N33">
-        <v>26</v>
-      </c>
       <c r="O33">
         <v>1</v>
       </c>
@@ -15021,7 +18649,7 @@
       </c>
     </row>
     <row r="34" spans="1:38">
-      <c r="A34" s="50"/>
+      <c r="A34" s="63"/>
       <c r="B34" s="15">
         <v>29</v>
       </c>
@@ -15034,39 +18662,18 @@
       <c r="E34" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F34">
-        <v>51</v>
-      </c>
-      <c r="I34">
-        <v>63</v>
-      </c>
-      <c r="J34">
-        <v>44</v>
-      </c>
       <c r="K34">
         <v>2</v>
       </c>
-      <c r="L34">
-        <v>62</v>
-      </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="P34">
         <v>5</v>
       </c>
-      <c r="Q34">
-        <v>33</v>
-      </c>
-      <c r="R34">
-        <v>13</v>
-      </c>
       <c r="S34">
         <v>4</v>
       </c>
-      <c r="T34">
-        <v>10</v>
-      </c>
       <c r="U34">
         <v>2</v>
       </c>
@@ -15085,18 +18692,9 @@
       <c r="Z34">
         <v>0</v>
       </c>
-      <c r="AA34">
-        <v>12</v>
-      </c>
-      <c r="AB34">
-        <v>29</v>
-      </c>
       <c r="AC34">
         <v>9</v>
       </c>
-      <c r="AD34">
-        <v>31</v>
-      </c>
       <c r="AE34">
         <v>1</v>
       </c>
@@ -15109,9 +18707,6 @@
       <c r="AH34">
         <v>5</v>
       </c>
-      <c r="AI34">
-        <v>22</v>
-      </c>
       <c r="AJ34">
         <v>8</v>
       </c>
@@ -15123,7 +18718,7 @@
       </c>
     </row>
     <row r="35" spans="1:38">
-      <c r="A35" s="50"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="20">
         <v>30</v>
       </c>
@@ -15139,24 +18734,12 @@
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35">
-        <v>22</v>
-      </c>
-      <c r="H35">
-        <v>35</v>
-      </c>
-      <c r="I35">
-        <v>45</v>
-      </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
         <v>7</v>
       </c>
-      <c r="L35">
-        <v>35</v>
-      </c>
       <c r="M35">
         <v>0</v>
       </c>
@@ -15190,9 +18773,6 @@
       <c r="X35">
         <v>3</v>
       </c>
-      <c r="Y35">
-        <v>30</v>
-      </c>
       <c r="Z35">
         <v>0</v>
       </c>
@@ -15211,18 +18791,12 @@
       <c r="AE35">
         <v>2</v>
       </c>
-      <c r="AF35">
-        <v>22</v>
-      </c>
       <c r="AG35">
         <v>5</v>
       </c>
       <c r="AH35">
         <v>0</v>
       </c>
-      <c r="AI35">
-        <v>30</v>
-      </c>
       <c r="AJ35">
         <v>4</v>
       </c>
@@ -15234,7 +18808,7 @@
       </c>
     </row>
     <row r="36" spans="1:38">
-      <c r="A36" s="50"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="15">
         <v>31</v>
       </c>
@@ -15250,24 +18824,15 @@
       <c r="F36">
         <v>7</v>
       </c>
-      <c r="G36">
-        <v>47</v>
-      </c>
       <c r="J36">
         <v>3</v>
       </c>
-      <c r="K36">
-        <v>13</v>
-      </c>
       <c r="L36">
         <v>9</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
-      <c r="N36">
-        <v>47</v>
-      </c>
       <c r="P36">
         <v>0</v>
       </c>
@@ -15295,21 +18860,9 @@
       <c r="X36">
         <v>1</v>
       </c>
-      <c r="Y36">
-        <v>17</v>
-      </c>
       <c r="Z36">
         <v>4</v>
       </c>
-      <c r="AA36">
-        <v>10</v>
-      </c>
-      <c r="AB36">
-        <v>41</v>
-      </c>
-      <c r="AC36">
-        <v>36</v>
-      </c>
       <c r="AD36">
         <v>5</v>
       </c>
@@ -15322,9 +18875,6 @@
       <c r="AG36">
         <v>0</v>
       </c>
-      <c r="AH36">
-        <v>23</v>
-      </c>
       <c r="AI36">
         <v>0</v>
       </c>
@@ -15339,7 +18889,7 @@
       </c>
     </row>
     <row r="37" spans="1:38">
-      <c r="A37" s="50"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="20">
         <v>32</v>
       </c>
@@ -15453,7 +19003,7 @@
       </c>
     </row>
     <row r="38" spans="1:38">
-      <c r="A38" s="50"/>
+      <c r="A38" s="63"/>
       <c r="B38" s="15">
         <v>33</v>
       </c>
@@ -15565,1148 +19115,410 @@
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="45">
-        <v>914</v>
-      </c>
     </row>
     <row r="42" spans="1:38">
       <c r="B42">
         <v>2</v>
       </c>
-      <c r="C42" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="45">
-        <v>891</v>
-      </c>
     </row>
     <row r="43" spans="1:38">
       <c r="B43">
         <v>3</v>
       </c>
-      <c r="C43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="45">
-        <v>564</v>
-      </c>
     </row>
     <row r="44" spans="1:38">
       <c r="B44" s="42">
         <v>4</v>
       </c>
-      <c r="C44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="45">
-        <v>534</v>
-      </c>
     </row>
     <row r="45" spans="1:38">
       <c r="B45" s="42">
         <v>5</v>
       </c>
-      <c r="C45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="46">
-        <v>479</v>
-      </c>
     </row>
     <row r="46" spans="1:38">
       <c r="B46" s="42">
         <v>6</v>
       </c>
-      <c r="C46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="46">
-        <v>402</v>
-      </c>
     </row>
     <row r="47" spans="1:38">
       <c r="B47" s="42">
         <v>7</v>
       </c>
-      <c r="C47" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="47">
-        <v>338</v>
-      </c>
     </row>
     <row r="48" spans="1:38">
       <c r="B48" s="42">
         <v>8</v>
       </c>
-      <c r="C48" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="47">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
+    </row>
+    <row r="49" spans="2:2">
       <c r="B49" s="42">
         <v>9</v>
       </c>
-      <c r="C49" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="47">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
+    </row>
+    <row r="50" spans="2:2">
       <c r="B50" s="42">
         <v>10</v>
       </c>
-      <c r="C50" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="48">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
+    </row>
+    <row r="51" spans="2:2">
       <c r="B51" s="42">
         <v>11</v>
       </c>
-      <c r="C51" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="48">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
+    </row>
+    <row r="52" spans="2:2">
       <c r="B52" s="42">
         <v>12</v>
       </c>
-      <c r="C52" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="48">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
+    </row>
+    <row r="53" spans="2:2">
       <c r="B53" s="42">
         <v>13</v>
       </c>
-      <c r="C53" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="48">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
+    </row>
+    <row r="54" spans="2:2">
       <c r="B54" s="42">
         <v>14</v>
       </c>
-      <c r="C54" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="48">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
+    </row>
+    <row r="55" spans="2:2">
       <c r="B55" s="42">
         <v>15</v>
       </c>
-      <c r="C55" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="48">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
+    </row>
+    <row r="56" spans="2:2">
       <c r="B56" s="42">
         <v>16</v>
       </c>
-      <c r="C56" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E56" s="48">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
+    </row>
+    <row r="57" spans="2:2">
       <c r="B57" s="42">
         <v>17</v>
       </c>
-      <c r="C57" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="48">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
+    </row>
+    <row r="58" spans="2:2">
       <c r="B58" s="42">
         <v>18</v>
       </c>
-      <c r="C58" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="48">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
+    </row>
+    <row r="59" spans="2:2">
       <c r="B59" s="42">
         <v>19</v>
       </c>
-      <c r="C59" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="48">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
+    </row>
+    <row r="60" spans="2:2">
       <c r="B60" s="42">
         <v>20</v>
       </c>
-      <c r="C60" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="48">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
+    </row>
+    <row r="61" spans="2:2">
       <c r="B61" s="42">
         <v>21</v>
       </c>
-      <c r="C61" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="43">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
+    </row>
+    <row r="62" spans="2:2">
       <c r="B62" s="42">
         <v>22</v>
       </c>
-      <c r="C62" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="43">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5">
+    </row>
+    <row r="63" spans="2:2">
       <c r="B63" s="42">
         <v>23</v>
       </c>
-      <c r="C63" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="43">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
+    </row>
+    <row r="64" spans="2:2">
       <c r="B64" s="42">
         <v>24</v>
       </c>
-      <c r="C64" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" s="43">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
+    </row>
+    <row r="65" spans="2:2">
       <c r="B65" s="42">
         <v>25</v>
       </c>
-      <c r="C65" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="43">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
+    </row>
+    <row r="66" spans="2:2">
       <c r="B66" s="42">
         <v>26</v>
       </c>
-      <c r="C66" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66" s="43">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5">
+    </row>
+    <row r="67" spans="2:2">
       <c r="B67" s="42">
         <v>27</v>
       </c>
-      <c r="C67" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="E67" s="43">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
+    </row>
+    <row r="68" spans="2:2">
       <c r="B68" s="42">
         <v>28</v>
       </c>
-      <c r="C68" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E68" s="43">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
+    </row>
+    <row r="69" spans="2:2">
       <c r="B69" s="42">
         <v>29</v>
       </c>
-      <c r="C69" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
+    </row>
+    <row r="70" spans="2:2">
       <c r="B70" s="42">
         <v>30</v>
       </c>
-      <c r="C70" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
+    </row>
+    <row r="71" spans="2:2">
       <c r="B71" s="42">
         <v>31</v>
       </c>
-      <c r="C71" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
+    </row>
+    <row r="72" spans="2:2">
       <c r="B72" s="42">
         <v>32</v>
       </c>
-      <c r="C72" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5">
+    </row>
+    <row r="73" spans="2:2">
       <c r="B73" s="42">
         <v>33</v>
       </c>
-      <c r="C73" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
+    </row>
+    <row r="74" spans="2:2">
       <c r="B74" s="42">
         <v>34</v>
       </c>
-      <c r="C74" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D74" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
+    </row>
+    <row r="75" spans="2:2">
       <c r="B75" s="42">
         <v>35</v>
       </c>
-      <c r="C75" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E75">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5">
+    </row>
+    <row r="76" spans="2:2">
       <c r="B76" s="42">
         <v>36</v>
       </c>
-      <c r="C76" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
+    </row>
+    <row r="77" spans="2:2">
       <c r="B77" s="42">
         <v>37</v>
       </c>
-      <c r="C77" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E77">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
+    </row>
+    <row r="78" spans="2:2">
       <c r="B78" s="42">
         <v>38</v>
       </c>
-      <c r="C78" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5">
+    </row>
+    <row r="79" spans="2:2">
       <c r="B79" s="42">
         <v>39</v>
       </c>
-      <c r="C79" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5">
+    </row>
+    <row r="80" spans="2:2">
       <c r="B80" s="42">
         <v>40</v>
       </c>
-      <c r="C80" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E80">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5">
+    </row>
+    <row r="81" spans="2:2">
       <c r="B81" s="42">
         <v>41</v>
       </c>
-      <c r="C81" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5">
+    </row>
+    <row r="82" spans="2:2">
       <c r="B82" s="42">
         <v>42</v>
       </c>
-      <c r="C82" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5">
+    </row>
+    <row r="83" spans="2:2">
       <c r="B83" s="42">
         <v>43</v>
       </c>
-      <c r="C83" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5">
+    </row>
+    <row r="84" spans="2:2">
       <c r="B84" s="42">
         <v>44</v>
       </c>
-      <c r="C84" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5">
+    </row>
+    <row r="85" spans="2:2">
       <c r="B85" s="42">
         <v>45</v>
       </c>
-      <c r="C85" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5">
+    </row>
+    <row r="86" spans="2:2">
       <c r="B86" s="42">
         <v>46</v>
       </c>
-      <c r="C86" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5">
+    </row>
+    <row r="87" spans="2:2">
       <c r="B87" s="42">
         <v>47</v>
       </c>
-      <c r="C87" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E87">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5">
+    </row>
+    <row r="88" spans="2:2">
       <c r="B88" s="42">
         <v>48</v>
       </c>
-      <c r="C88" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5">
+    </row>
+    <row r="89" spans="2:2">
       <c r="B89" s="42">
         <v>49</v>
       </c>
-      <c r="C89" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="D89" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5">
+    </row>
+    <row r="90" spans="2:2">
       <c r="B90" s="42">
         <v>50</v>
       </c>
-      <c r="C90" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D90" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5">
+    </row>
+    <row r="91" spans="2:2">
       <c r="B91" s="42">
         <v>51</v>
       </c>
-      <c r="C91" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="D91" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5">
+    </row>
+    <row r="92" spans="2:2">
       <c r="B92" s="42">
         <v>52</v>
       </c>
-      <c r="C92" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D92" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5">
+    </row>
+    <row r="93" spans="2:2">
       <c r="B93" s="42">
         <v>53</v>
       </c>
-      <c r="C93" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5">
+    </row>
+    <row r="94" spans="2:2">
       <c r="B94" s="42">
         <v>54</v>
       </c>
-      <c r="C94" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D94" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5">
+    </row>
+    <row r="95" spans="2:2">
       <c r="B95" s="42">
         <v>55</v>
       </c>
-      <c r="C95" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E95">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5">
+    </row>
+    <row r="96" spans="2:2">
       <c r="B96" s="42">
         <v>56</v>
       </c>
-      <c r="C96" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E96">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" s="42" customFormat="1">
+    </row>
+    <row r="97" spans="2:2" s="42" customFormat="1">
       <c r="B97" s="42">
         <v>57</v>
       </c>
-      <c r="C97" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D97" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5">
+    </row>
+    <row r="98" spans="2:2">
       <c r="B98" s="42">
         <v>58</v>
       </c>
-      <c r="C98" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E98">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5">
+    </row>
+    <row r="99" spans="2:2">
       <c r="B99" s="42">
         <v>59</v>
       </c>
-      <c r="C99" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D99" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5">
+    </row>
+    <row r="100" spans="2:2">
       <c r="B100" s="42">
         <v>60</v>
       </c>
-      <c r="C100" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5">
+    </row>
+    <row r="101" spans="2:2">
       <c r="B101" s="42">
         <v>61</v>
       </c>
-      <c r="C101" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5">
+    </row>
+    <row r="102" spans="2:2">
       <c r="B102" s="42">
         <v>62</v>
       </c>
-      <c r="C102" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D102" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5">
+    </row>
+    <row r="103" spans="2:2">
       <c r="B103" s="42">
         <v>63</v>
       </c>
-      <c r="C103" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5">
+    </row>
+    <row r="104" spans="2:2">
       <c r="B104" s="42">
         <v>64</v>
       </c>
-      <c r="C104" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D104" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" s="42" customFormat="1">
+    </row>
+    <row r="105" spans="2:2" s="42" customFormat="1">
       <c r="B105" s="42">
         <v>65</v>
       </c>
-      <c r="C105" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D105" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" s="38" customFormat="1">
+    </row>
+    <row r="106" spans="2:2" s="38" customFormat="1">
       <c r="B106" s="42">
         <v>66</v>
       </c>
-      <c r="C106" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D106" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5">
+    </row>
+    <row r="107" spans="2:2">
       <c r="B107" s="42">
         <v>67</v>
       </c>
-      <c r="C107" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D107" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E107">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5">
+    </row>
+    <row r="108" spans="2:2">
       <c r="B108" s="42">
         <v>68</v>
       </c>
-      <c r="C108" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D108" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E108">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5">
+    </row>
+    <row r="109" spans="2:2">
       <c r="B109" s="42">
         <v>69</v>
       </c>
-      <c r="C109" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5">
+    </row>
+    <row r="110" spans="2:2">
       <c r="B110" s="42">
         <v>70</v>
       </c>
-      <c r="C110" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D110" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5">
+    </row>
+    <row r="111" spans="2:2">
       <c r="B111" s="42">
         <v>71</v>
       </c>
-      <c r="C111" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5">
+    </row>
+    <row r="112" spans="2:2">
       <c r="B112" s="42">
         <v>72</v>
       </c>
-      <c r="C112" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D112" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E112">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5">
+    </row>
+    <row r="113" spans="2:2">
       <c r="B113" s="42">
         <v>73</v>
       </c>
-      <c r="C113" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D113" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E113">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5">
+    </row>
+    <row r="114" spans="2:2">
       <c r="B114" s="42">
         <v>74</v>
       </c>
-      <c r="C114" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5">
+    </row>
+    <row r="115" spans="2:2">
       <c r="B115" s="42">
         <v>75</v>
       </c>
-      <c r="C115" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D115" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E115">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5">
+    </row>
+    <row r="116" spans="2:2">
       <c r="B116" s="42">
         <v>76</v>
       </c>
-      <c r="C116" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E116">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5">
+    </row>
+    <row r="117" spans="2:2">
       <c r="B117" s="42">
         <v>77</v>
       </c>
-      <c r="C117" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D117" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E117">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5">
+    </row>
+    <row r="118" spans="2:2">
       <c r="B118" s="42">
         <v>78</v>
       </c>
-      <c r="C118" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E118">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5">
+    </row>
+    <row r="119" spans="2:2">
       <c r="B119" s="42">
         <v>79</v>
       </c>
-      <c r="C119" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E119">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5">
+    </row>
+    <row r="120" spans="2:2">
       <c r="B120" s="42">
         <v>80</v>
       </c>
-      <c r="C120" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D120" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E120">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5">
+    </row>
+    <row r="121" spans="2:2">
       <c r="B121" s="42">
         <v>81</v>
       </c>
-      <c r="C121" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D121" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5">
+    </row>
+    <row r="122" spans="2:2">
       <c r="B122" s="42">
         <v>82</v>
-      </c>
-      <c r="C122" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D122" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E122">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -16714,79 +19526,45 @@
     <mergeCell ref="A1:A38"/>
     <mergeCell ref="B1:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="E61:E68">
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="between">
-      <formula>300</formula>
-      <formula>400</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="37" operator="between">
-      <formula>400</formula>
-      <formula>500</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="38" operator="between">
-      <formula>400</formula>
-      <formula>500</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="39" operator="greaterThan">
-      <formula>400</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="42" operator="greaterThan">
-      <formula>500</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="9" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="54" operator="greaterThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E68">
-    <cfRule type="cellIs" dxfId="8" priority="22" operator="between">
-      <formula>200</formula>
-      <formula>300</formula>
+  <conditionalFormatting sqref="F14:M14 AI17:AL17 P24:AL24 F37:AL38 AI36:AL36 I22:AL22 AJ34:AL34 F35 H35:AE35 AG35:AL35 F11:H11 P21:AD21 Z29:AD29 AI30:AL30 AK9:AL9 AG17 R6:AL6 AA25:AL25 Z30:AC30 AB20:AL20 M25:Y25 O26:AD26 AF26:AL26 F6:J7 M26 G8 I8:P8 F12:J12 L12:Q12 AA7:AC7 S9 R13:AC13 AE13:AF13 F21 F25:K25 F26:I26 K26 G27:J27 J32:X32 L27:V27 X27:AL27 F28:AB28 AE30:AF30 Y7:Y8 AA8 F19:I19 K19:AL19 F29:X29 F30:K30 M30:X30 F31:I31 L6:P6 L7:O7 U9:AF9 AH9:AI9 AG12 AI12:AL13 F16:AL16 F18:Q18 F20:M20 O20:Z20 Z32:AL32 AC31:AL31 F9:O9 Q9 AG11:AL11 J11:Q11 O14:P14 R14:Y14 AC17:AE17 AF28:AL28 AF29 AH29:AL29 F33:H33 G32:H32 K33:AL33 F34:Q34 F36:J36 L36:X36 AA14:AB14 AD14 U15 AF21:AG21 AI21:AL21 J23:Y23 AA23:AL23 K31:M31 AB34:AH34 R7:W7 R8:S8 U8:W8 F10 H10:AL10 S11:AE11 S12:AC12 AE12 F15:P15 R15:S15 S18:AF18 AH18:AL18 F24:H24 F22:G23 K24:N24 AE7:AF8 AH7:AL8 G13:P13 X15:AD15 AF15:AL15 AF14:AH14 AJ14:AL14 F17:X17 Z17:AA17 H21 J21:M21 O31:W31 S34 U34:Z34 Z36 AB36:AG36">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
+      <formula>23</formula>
+      <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E68">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
-      <formula>150</formula>
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
-      <formula>180</formula>
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="between">
-      <formula>100</formula>
-      <formula>200</formula>
+  <conditionalFormatting sqref="I22:AL22 AJ34:AL34 F35 H35:AE35 AG35:AL35 F11:H11 Z29:AD29 AI30:AL30 AK9:AL9 AG17:AL17 R6:AL6 AA25:AL25 Z30:AC30 AB20:AL20 M25:Y25 AF26:AL26 F6:J6 L6:P6 R7:W7 M26:AD26 F37:AL38 G8 F12:J12 L12:Q12 Y7 AA7:AC7 S9 R13:AC13 AE13:AF13 F21 F25:K25 F26:I26 K26 F27:J27 J32:X32 L27:V27 X27:AL27 F28:AB28 AE30:AF30 AA8 F19:I19 K19:AL19 F29:X29 F30:K30 M30:X30 F31:I31 F7:O7 U9:AF9 AH9:AI9 AI12:AL13 F16:AL16 F18:Q18 F20:M20 O20:Z20 Z32:AL32 AC31:AL31 F9:O9 Q9 AG11:AL11 J11:Q11 S11:AE11 R14:Y14 AC17:AE17 AF28:AL28 AF29 AH29:AL29 G32:H32 F33:I33 K33:AL33 F34:Q34 F36:J36 L36:X36 AA14:AB14 AD14 U15 P21:AG21 AI21:AL21 J23:Y23 AA23:AL23 K31:M31 AB34:AH34 I8:S8 U8:Y8 F10 H10:AL10 S12:AC12 AE12:AG12 R15:S15 S18:AF18 AH18:AL18 F24:H24 F22:G23 K24:AL24 AE7:AF8 AH7:AL8 F14:P15 G13:P13 X15:AD15 AF15:AL15 AF14:AH14 AJ14:AL14 F17:X17 Z17:AA17 H21 J21:M21 O31:W31 S34 U34:Z34 Z36 AB36:AL36">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+      <formula>20</formula>
+      <formula>23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI9:AL9 F37:AL38 F36:G36 I36:N36 AG15:AL15 F29:G29 AC15:AE15 F16:P16 R16:AL16 F9:AA9 AC9:AG9 F17 AB8:AE8 AG8:AL8 F10:AL13 F14:Q14 F23 F6:AL6 F7:I7 P17:AL17 F19:AL19 F18:G18 I26:AL26 P27:AL27 F15 H15:I15 F20 S14:AG14 AI14:AL14 K7:Q7 S7:AL7 I18:Z18 AB18:AL18 I25:M25 F26:F27 H27:N27 I17:N17 I20:N20 P20:AL20 F30 P25:V25 X25:AL25 Q29:AL29 F33:AL33 L15:AA15 I29:K29 M29:O29 F22:AL22 F21:G21 I21:AL21 Z28:AL28 J30:AL30 H23:N23 P23:AL23 F34:N35 P34:AL36 X8 Z8 F31:N31 F32 H32:N32 F8:O8 F24:G25 I24:AL24 P32:AL32 P31:AB31 AD31:AL31 Q8 S8:V8 F28:H28 J28:X28 E69:E122">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
-      <formula>130</formula>
-      <formula>150</formula>
+  <conditionalFormatting sqref="AA25:AL25 Z30:AC30 AB20:AL20 M25:Y25 AF26:AL26 F6:J6 L6:AL6 M26:AD26 F37:AL38 F8:G8 F12:J12 Y7 AA7:AC7 AE13:AF13 F21 F25:K25 F26:I26 K26 F27:J27 J32:AL32 L27:V27 X27:AL27 F28:AB28 AE30:AF30 AA8 F19:I19 K19:AL19 F24:H24 AF28:AL28 F30:K30 M30:X30 F31:I31 F7:O7 Q7:W7 U9:AF9 AI12:AL13 F18:Q18 F20:M20 O20:Z20 AC31:AL31 F9:O9 Q9:S9 AG11:AL11 F11:Q11 S11:AE11 R14:Y14 F16:AL16 AC17:AL17 F29:AF29 AH29:AL30 G32:H32 F33:I33 K33:AL33 F35:AL35 F34:Q34 F36:J36 L36:X36 AA14:AB14 AD14 U15 O21:AG21 AI21:AL21 F22:AL22 AA23:AL23 K31:M31 AB34:AL34 AE7:AF7 I8:S8 U8:Y8 F10 H10:AL10 L12:AC12 AE12:AG12 F14:P15 R15:S15 S18:AF18 AH18:AL18 F23:G23 I23:Y23 K24:AL24 AD8:AF8 AH7:AL9 G13:AC13 X15:AD15 AF15:AL15 AF14:AH14 AJ14:AL14 F17:X17 Z17:AA17 H21 J21:M21 O31:W31 S34 U34:Z34 Z36 AB36:AL36">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+      <formula>18</formula>
+      <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:P16 R16:AL16 F9:AA9 AC9:AL9 F17 AB8:AE8 AG8:AL8 F10:AL13 F14:Q14 F23 F6:AL6 F7:I7 P17:AL17 F19:AL19 F18:G18 I26:AL26 P27:AL27 P32:AL32 F15 H15:I15 F20 S14:AG14 AI14:AL14 K7:Q7 S7:AL7 I18:Z18 AB18:AL18 I25:M25 F26:F27 H27:N27 I17:N17 I20:N20 P20:AL20 F30 P25:V25 X25:AL25 Q29:AL29 F33:AL33 L15:AL15 F29:K29 M29:O29 F22:AL22 F21:G21 I21:AL21 Z28:AL28 J30:AL30 H23:N23 P23:AL23 F36:AL38 F34:N35 P34:AL35 X8 Z8 F32 H32:N32 F8:O8 F24:G25 I24:AL24 F31:AB31 AD31:AL31 Q8 S8:V8 F28:H28 J28:X28 E76:E122">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
-      <formula>110</formula>
-      <formula>130</formula>
+  <conditionalFormatting sqref="F6:J6 L6:AL6 M26:AL26 F37:AL38 F8:G8 F12:J12 Y7 F21 F26:I26 K26 F27:J27 J32:AL32 L27:V27 X27:AL27 F28:AB28 F19:I19 K19:AL19 F25:AL25 F24:H24 AF28:AL28 F30:K30 M30:AF30 F31:I31 F7:O7 Q7:W7 U9:AF9 AI12:AL13 F18:Q18 F20:M20 O20:AL20 AC31:AL31 F9:O9 Q9:S9 AA8:AB8 AG11:AL11 F11:Q11 S11:AE11 R14:Y14 F16:AL16 AC17:AL17 F29:AF29 AH29:AL30 G32:H32 F33:I33 K33:AL33 F35:AL35 F34:Q34 F36:J36 L36:X36 AA14:AB14 AD14 U15 AI21:AL21 F22:AL22 AA23:AL23 K31:M31 AB34:AL34 AA7:AF7 I8:S8 U8:Y8 F10 H10:AL10 L12:AC12 AE12:AG13 F14:P15 R15:S15 S18:AF18 AH18:AL18 F23:G23 I23:Y23 K24:AL24 AD8:AF8 AH7:AL9 G13:AC13 X15:AD15 AF15:AL15 AF14:AH14 AJ14:AL14 F17:X17 Z17:AA17 H21 J21:AG21 O31:W31 S34 U34:Z34 Z36 AB36:AL36">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+      <formula>15</formula>
+      <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:AL26 P27:AL27 P32:AL32 F15 F19:AL19 F20 F14:AG14 AI14:AL14 F6:AL6 F7:Q7 S7:AL7 I18:Z18 AB18:AL18 I25:M25 F26:F27 H27:N27 F16:AL16 F17:G18 I17:AL17 H20:N20 P20:AL20 F30 P25:V25 X25:AL25 Q29:AL29 F33:AL33 H15:J15 L15:AL15 F29:K29 M29:O29 F21:G21 I21:AL21 Z28:AL28 J30:AL30 F22:AL22 F23:N23 P23:AL23 F36:AL38 F34:N35 P34:AL35 F9:AL13 Z8:AL8 F32 H32:N32 F8:O8 F24:G25 I24:AL24 F31:AB31 AD31:AL31 Q8 S8:X8 F28:H28 J28:X28 E88:E122">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
-      <formula>100</formula>
-      <formula>110</formula>
+  <conditionalFormatting sqref="F6:AL6 F7:O7 AI12:AL12 F18:Q18 F19:AL19 F20:M20 O20:AL20 AC31:AL31 F9:O9 Q9:AF9 AG11:AL11 F11:Q11 S11:AE11 F16:AL16 AC17:AL17 F28:AC28 AE28:AL28 F30:AL30 F29:AF29 AH29:AL29 G32:AL32 F33:I33 K33:AL33 F34:Q34 F35:AL35 F37:AL38 F36:J36 R14:AB14 AD14 U15 AI21:AL21 F22:AL22 AA23:AL23 F31:M31 AB34:AL34 Q7:AF7 F8:S8 U8:AB8 F10 H10:AL10 F12:AC12 AE12:AG12 F14:P15 R15:S15 S18:AF18 AH18:AL18 F23:G23 I23:Y23 F25:AL27 F24:I24 K24:AL24 AD8:AF8 AH7:AL9 G13:AL13 X15:AD15 AF15:AL15 AF14:AH14 AJ14:AL14 F17:X17 Z17:AA17 F21:H21 J21:AG21 O31:W31 Y31 S34 U34:Z34 L36:Z36 AB36:AL36">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>12</formula>
+      <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:AG14 AI14:AL14 F6:AL6 F7:Q7 S7:AL7 F18:Z18 AB18:AL18 F26:AL26 F27 H27:AL27 F17:G17 I17:AL17 F19:AL19 F20:N20 P20:AL20 F30 I25:V25 X25:AL25 Q29:AL29 F16:AL16 F15:J15 L15:AL15 F29:K29 M29:O29 F21:G21 I21:AL21 Z28:AL28 J30:AL30 F22:AL22 F23:N23 P23:AL23 F36:AL38 F34:N35 P34:AL35 F9:AL13 Z8:AL8 F33:AL33 F32 H32:AL32 F8:O8 F24:G25 I24:AL24 F31:AB31 AD31:AL31 Q8 S8:X8 F28:H28 J28:X28 E97:E122">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
-      <formula>80</formula>
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:AL38">
+  <conditionalFormatting sqref="F6:AL6 F7:AF7 F8:S8 F9:AL9 F10 H10:AL10 F11:AL11 F12:AC12 AE12:AL12 F15:P15 F18:AF18 AH18:AL18 F23:G23 I23:AL23 F24:I24 K24:AL24 U8:AF8 AH7:AL8 G13:AL13 R15:V15 X15:AL15 F14:AH14 AJ14:AL14 F16:AL16 F17:X17 Z17:AL17 F19:AL20 F22:AL22 F21:H21 J21:AL21 F25:AL30 F31:W31 Y31:AL31 F32:AL33 F34:S34 U34:AL34 F35:AL35 F37:AL38 F36:Z36 AB36:AL36">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>70</formula>
-      <formula>80</formula>
+      <formula>10</formula>
+      <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Copy of Warang Citi Pair Frequency in Muluku Hitehasa(2310).xlsx
+++ b/Copy of Warang Citi Pair Frequency in Muluku Hitehasa(2310).xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
-    <sheet name="Primary Data" sheetId="1" r:id="rId1"/>
-    <sheet name="List" sheetId="4" r:id="rId2"/>
+    <sheet name="List" sheetId="4" r:id="rId1"/>
+    <sheet name="Primary Data" sheetId="1" r:id="rId2"/>
     <sheet name="Pending" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -917,26 +917,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -950,11 +930,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="32">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1017,198 +1017,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1409,253 +1222,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1917,6 +1483,3561 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C309"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="43" customFormat="1">
+      <c r="A1" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="60">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="60">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="62">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="62">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="63">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="63">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="64">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="64">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="64">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="65">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="65">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="65">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="65">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="65">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="65">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="65">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="65">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="65">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="65">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="65">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="66">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="66">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="66">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="66">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="66">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="66">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="66">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="66">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="59">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="59">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="59">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="59">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="59">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="59">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="59">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="59">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="59">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="59">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="67">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="67">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="67">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="67">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="67">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="67">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="67">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="67">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="67">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="67">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="67">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="67">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="67">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="67">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="67">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="67">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="67">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="59">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="59">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="59">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="59">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="59">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="59">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="59">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="59">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="59">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="59">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="59">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="59">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="59">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="59">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="59">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="59">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="59">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="59">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="59">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="59">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="59">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="59">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="59">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="59">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="59">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="59">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="68">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="68">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="68">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="68">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="68">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B89" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="68">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" s="68">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="68">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="68">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="59">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="59">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="59">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="59">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="59">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="59">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="59">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="59">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="59">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B102" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="59">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" s="59">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="59">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="59">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" s="59">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="59">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B108" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="59">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" s="59">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="59">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="59">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="59">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B119" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119" s="59">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B120" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="59">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="59">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" s="59">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C123" s="59">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B124" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="59">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B125" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="59">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B127" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" s="59">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="59">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B129" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" s="59">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B130" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="59">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="59">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B132" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="59">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B133" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="59">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="59">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135" s="59">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B136" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="59">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B137" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="59">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" s="59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139" s="59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" s="59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B144" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" s="59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="59">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B146" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="59">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="59">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C148" s="59">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="59">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150" s="59">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C151" s="59">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="59">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C153" s="59">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C154" s="59">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" s="59">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" s="59">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B157" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157" s="59">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B158" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C158" s="59">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="59">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B160" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="59">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="59">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="59">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B163" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C163" s="59">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B164" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C164" s="59">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B165" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="59">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B166" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C166" s="59">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167" s="59">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B168" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="59">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B169" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="59">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B170" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" s="59">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" s="59">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C172" s="59">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="59">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C174" s="59">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B175" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="59">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C176" s="59">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" s="59">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="59">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B179" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C179" s="59">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C181" s="59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B182" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" s="59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B183" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C183" s="59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B184" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C184" s="59">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C185" s="59">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186" s="59">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C187" s="59">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188" s="59">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B189" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C189" s="59">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B190" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C190" s="59">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C191" s="59">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B192" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" s="59">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C193" s="59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" s="59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C195" s="59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196" s="59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="59">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" s="59">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C199" s="59">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B200" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" s="59">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C201" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B202" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C202" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C203" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B204" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B206" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B207" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B208" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C208" s="59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B209" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" s="59">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" s="59">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B211" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" s="59">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B212" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" s="59">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B213" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C213" s="59">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B214" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C214" s="59">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B215" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215" s="59">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B216" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C216" s="59">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" s="59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C219" s="59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B220" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" s="59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B221" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C221" s="59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B222" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C222" s="59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B223" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C223" s="59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" s="59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C225" s="59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226" s="59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C227" s="59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B228" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C228" s="59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B229" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C229" s="59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C230" s="59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B231" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231" s="59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B232" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C232" s="59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B233" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" s="59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B234" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C234" s="59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C235" s="59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B236" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C236" s="59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B237" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" s="59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B238" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C238" s="59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B239" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C240" s="59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C241" s="59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B242" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" s="59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B243" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C243" s="59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B244" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C244" s="59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" s="59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B246" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B247" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C247" s="59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B248" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C248" s="59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C249" s="59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B250" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" s="59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B251" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" s="59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B252" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B253" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" s="59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B254" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C254" s="59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B255" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C255" s="59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B256" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C256" s="59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C257" s="59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B258" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C258" s="59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B259" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259" s="59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B260" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C260" s="59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B261" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C261" s="59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B262" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262" s="59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B263" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" s="59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B264" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C264" s="59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B265" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C265" s="59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B266" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C266" s="59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B267" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267" s="59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B268" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C268" s="59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B269" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C269" s="59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B270" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C270" s="59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B271" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C271" s="59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B272" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C272" s="59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B273" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C273" s="59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C274" s="59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B275" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C275" s="59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B276" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276" s="59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C277" s="59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B278" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C278" s="59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B279" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C279" s="59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B280" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C280" s="59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B281" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" s="59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B282" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" s="59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B283" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C283" s="59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B284" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C284" s="59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B285" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C285" s="59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B286" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C286" s="59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B287" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C287" s="59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B288" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C288" s="59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B289" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C289" s="59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B290" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C290" s="59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B291" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" s="59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B292" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C292" s="59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B293" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C293" s="59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B294" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C294" s="59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B295" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" s="59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B296" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C296" s="59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B297" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C297" s="59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B298" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C298" s="59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B299" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" s="59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B300" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" s="59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B301" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C301" s="59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B302" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C302" s="59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B303" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C303" s="59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B304" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C304" s="59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C305" s="59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B306" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C306" s="59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B307" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C307" s="59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B308" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C308" s="59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B309" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C309" s="59">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C22:C29">
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="between">
+      <formula>300</formula>
+      <formula>400</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="between">
+      <formula>400</formula>
+      <formula>500</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="between">
+      <formula>400</formula>
+      <formula>500</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="greaterThan">
+      <formula>400</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="greaterThan">
+      <formula>500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C29">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="between">
+      <formula>200</formula>
+      <formula>300</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C29">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="between">
+      <formula>150</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="between">
+      <formula>180</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="between">
+      <formula>100</formula>
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:C39 C58:C83 C93:C183">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="between">
+      <formula>130</formula>
+      <formula>150</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C58:C83 C93:C183">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="between">
+      <formula>110</formula>
+      <formula>130</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:C83 C93:C183">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="between">
+      <formula>100</formula>
+      <formula>110</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:C83 C93:C183">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="between">
+      <formula>80</formula>
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93:C183">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="between">
+      <formula>70</formula>
+      <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93:C183">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="between">
+      <formula>60</formula>
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109:C183">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="between">
+      <formula>50</formula>
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127:C183">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="between">
+      <formula>40</formula>
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:C183">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="between">
+      <formula>30</formula>
+      <formula>40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C184:C196">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="between">
+      <formula>25</formula>
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C197:C309">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="between">
+      <formula>23</formula>
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C209:C309">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="between">
+      <formula>20</formula>
+      <formula>23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C229:C309">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="between">
+      <formula>18</formula>
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C239:C309">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="between">
+      <formula>15</formula>
+      <formula>18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C264:C309">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="between">
+      <formula>12</formula>
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C293:C309">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
+      <formula>10</formula>
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1968,13 +5089,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2015,56 +5136,56 @@
       <c r="AO1" s="41"/>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
       <c r="AM2" s="41"/>
       <c r="AN2" s="41"/>
       <c r="AO2" s="41"/>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="51" t="s">
         <v>3</v>
       </c>
@@ -2169,7 +5290,7 @@
       <c r="AO3" s="41"/>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="59"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
@@ -2280,7 +5401,7 @@
       <c r="AO4" s="41"/>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" s="59"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
@@ -2389,7 +5510,7 @@
       <c r="AO5" s="41"/>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" s="59"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="15">
         <v>1</v>
       </c>
@@ -2506,7 +5627,7 @@
       <c r="AO6" s="41"/>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" s="59"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="20">
         <v>2</v>
       </c>
@@ -2623,7 +5744,7 @@
       <c r="AO7" s="41"/>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" s="59"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="15">
         <v>3</v>
       </c>
@@ -2740,7 +5861,7 @@
       <c r="AO8" s="41"/>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" s="59"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="20">
         <v>4</v>
       </c>
@@ -2857,7 +5978,7 @@
       <c r="AO9" s="41"/>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" s="59"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="15">
         <v>5</v>
       </c>
@@ -2974,7 +6095,7 @@
       <c r="AO10" s="41"/>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" s="59"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="20">
         <v>6</v>
       </c>
@@ -3091,7 +6212,7 @@
       <c r="AO11" s="41"/>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" s="59"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="15">
         <v>7</v>
       </c>
@@ -3208,7 +6329,7 @@
       <c r="AO12" s="41"/>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" s="59"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="20">
         <v>8</v>
       </c>
@@ -3325,7 +6446,7 @@
       <c r="AO13" s="41"/>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" s="59"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="15">
         <v>9</v>
       </c>
@@ -3442,7 +6563,7 @@
       <c r="AO14" s="41"/>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" s="59"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="20">
         <v>10</v>
       </c>
@@ -3559,7 +6680,7 @@
       <c r="AO15" s="41"/>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" s="59"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="15">
         <v>11</v>
       </c>
@@ -3676,7 +6797,7 @@
       <c r="AO16" s="41"/>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" s="59"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="20">
         <v>12</v>
       </c>
@@ -3793,7 +6914,7 @@
       <c r="AO17" s="41"/>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" s="59"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="15">
         <v>13</v>
       </c>
@@ -3910,7 +7031,7 @@
       <c r="AO18" s="41"/>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" s="59"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="20">
         <v>14</v>
       </c>
@@ -4027,7 +7148,7 @@
       <c r="AO19" s="41"/>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" s="59"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="15">
         <v>15</v>
       </c>
@@ -4144,7 +7265,7 @@
       <c r="AO20" s="41"/>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" s="59"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="20">
         <v>16</v>
       </c>
@@ -4261,7 +7382,7 @@
       <c r="AO21" s="41"/>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" s="59"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="15">
         <v>17</v>
       </c>
@@ -4378,7 +7499,7 @@
       <c r="AO22" s="41"/>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" s="59"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="20">
         <v>18</v>
       </c>
@@ -4495,7 +7616,7 @@
       <c r="AO23" s="41"/>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" s="59"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="15">
         <v>19</v>
       </c>
@@ -4612,7 +7733,7 @@
       <c r="AO24" s="41"/>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" s="59"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="20">
         <v>20</v>
       </c>
@@ -4729,7 +7850,7 @@
       <c r="AO25" s="41"/>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" s="59"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="15">
         <v>21</v>
       </c>
@@ -4846,7 +7967,7 @@
       <c r="AO26" s="41"/>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" s="59"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="20">
         <v>22</v>
       </c>
@@ -4963,7 +8084,7 @@
       <c r="AO27" s="41"/>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" s="59"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="15">
         <v>23</v>
       </c>
@@ -5080,7 +8201,7 @@
       <c r="AO28" s="41"/>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" s="59"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="20">
         <v>24</v>
       </c>
@@ -5197,7 +8318,7 @@
       <c r="AO29" s="41"/>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" s="59"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="15">
         <v>25</v>
       </c>
@@ -5314,7 +8435,7 @@
       <c r="AO30" s="41"/>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" s="59"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="20">
         <v>26</v>
       </c>
@@ -5431,7 +8552,7 @@
       <c r="AO31" s="41"/>
     </row>
     <row r="32" spans="1:41">
-      <c r="A32" s="59"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="15">
         <v>27</v>
       </c>
@@ -5548,7 +8669,7 @@
       <c r="AO32" s="41"/>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="59"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="20">
         <v>28</v>
       </c>
@@ -5665,7 +8786,7 @@
       <c r="AO33" s="41"/>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="59"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="15">
         <v>29</v>
       </c>
@@ -5782,7 +8903,7 @@
       <c r="AO34" s="41"/>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="59"/>
+      <c r="A35" s="70"/>
       <c r="B35" s="20">
         <v>30</v>
       </c>
@@ -5899,7 +9020,7 @@
       <c r="AO35" s="41"/>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="59"/>
+      <c r="A36" s="70"/>
       <c r="B36" s="15">
         <v>31</v>
       </c>
@@ -6016,7 +9137,7 @@
       <c r="AO36" s="41"/>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="59"/>
+      <c r="A37" s="70"/>
       <c r="B37" s="20">
         <v>32</v>
       </c>
@@ -6133,7 +9254,7 @@
       <c r="AO37" s="41"/>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="59"/>
+      <c r="A38" s="70"/>
       <c r="B38" s="15">
         <v>33</v>
       </c>
@@ -12293,3561 +15414,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C309"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="43" customFormat="1">
-      <c r="A1" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="68">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="68">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="70">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="70">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="71">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="71">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="72">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="72">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="72">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="73">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="73">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="73">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="73">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="73">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="73">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="73">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="73">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="73">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="73">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="73">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="74">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="74">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="74">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="74">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="74">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="74">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="74">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="74">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="67">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="67">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="67">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="67">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="67">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="67">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="67">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="67">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="67">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="67">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="75">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="75">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="75">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="75">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="75">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="75">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="75">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="75">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="75">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="75">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="75">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="75">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="75">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="75">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="75">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="75">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="75">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="75">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="67">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="67">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="67">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="67">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="67">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="67">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="67">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="67">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B66" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="67">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="B67" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="67">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="67">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="67">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="67">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="B71" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="67">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="67">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C73" s="67">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="B74" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="67">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="B75" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="67">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="B76" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="67">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C77" s="67">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B78" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="67">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="67">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="67">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="C81" s="67">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="67">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="67">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="C84" s="76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="76">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B86" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86" s="76">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B87" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="76">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="76">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="B89" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="76">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="C90" s="76">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="76">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="B92" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="76">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B93" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C93" s="67">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="B94" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" s="67">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" s="67">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" s="67">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="B97" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="67">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B99" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B100" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C100" s="67">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B101" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101" s="67">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B102" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" s="67">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C103" s="67">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B104" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="67">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="67">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="B106" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C106" s="67">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B107" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="67">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B108" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" s="67">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B109" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109" s="67">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="67">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B111" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="C111" s="67">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B112" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" s="67">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="B113" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="67">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B114" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C114" s="67">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B115" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="C115" s="67">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B116" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" s="67">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B117" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" s="67">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B118" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" s="67">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="B119" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C119" s="67">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B120" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C120" s="67">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B121" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" s="67">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="B122" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="C122" s="67">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B123" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C123" s="67">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B124" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" s="67">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B125" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="67">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B126" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C126" s="67">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B127" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C127" s="67">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="B128" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" s="67">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="B129" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="C129" s="67">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="B130" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C130" s="67">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B131" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C131" s="67">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B132" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" s="67">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B133" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="67">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B134" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="C134" s="67">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="B135" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="C135" s="67">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B136" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C136" s="67">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B137" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" s="67">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B138" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C138" s="67">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B139" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C139" s="67">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B140" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" s="67">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B141" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C141" s="67">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B142" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="67">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B143" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143" s="67">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="B144" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C144" s="67">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C145" s="67">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B146" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C146" s="67">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B147" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="67">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B148" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C148" s="67">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B149" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C149" s="67">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="B150" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C150" s="67">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B151" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C151" s="67">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B152" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C152" s="67">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B153" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="C153" s="67">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B154" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C154" s="67">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B155" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C155" s="67">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B156" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C156" s="67">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B157" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="C157" s="67">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B158" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C158" s="67">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B159" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C159" s="67">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B160" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" s="67">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="B161" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C161" s="67">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B162" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C162" s="67">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B163" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C163" s="67">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B164" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="C164" s="67">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B165" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C165" s="67">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="B166" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="C166" s="67">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B167" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C167" s="67">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="B168" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C168" s="67">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="B169" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C169" s="67">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B170" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C170" s="67">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B171" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C171" s="67">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B172" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="C172" s="67">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B173" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C173" s="67">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B174" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C174" s="67">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B175" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C175" s="67">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B176" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C176" s="67">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B177" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C177" s="67">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B178" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C178" s="67">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B179" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C179" s="67">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B180" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C180" s="67">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B181" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C181" s="67">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="B182" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C182" s="67">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="B183" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C183" s="67">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B184" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C184" s="67">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B185" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C185" s="67">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B186" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C186" s="67">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B187" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C187" s="67">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B188" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C188" s="67">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B189" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C189" s="67">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B190" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="C190" s="67">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B191" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="C191" s="67">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="B192" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C192" s="67">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B193" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="C193" s="67">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B194" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C194" s="67">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B195" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C195" s="67">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B196" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C196" s="67">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B197" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" s="67">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B198" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C198" s="67">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B199" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="C199" s="67">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B200" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C200" s="67">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B201" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C201" s="67">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="B202" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="C202" s="67">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="B203" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C203" s="67">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B204" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C204" s="67">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="B205" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C205" s="67">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="B206" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C206" s="67">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="B207" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C207" s="67">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="B208" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="C208" s="67">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B209" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C209" s="67">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B210" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C210" s="67">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="B211" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C211" s="67">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="B212" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C212" s="67">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B213" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C213" s="67">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B214" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C214" s="67">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="B215" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C215" s="67">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="B216" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C216" s="67">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B217" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C217" s="67">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B218" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C218" s="67">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B219" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C219" s="67">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="B220" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C220" s="67">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B221" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C221" s="67">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B222" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="C222" s="67">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B223" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C223" s="67">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B224" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C224" s="67">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B225" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C225" s="67">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B226" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C226" s="67">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B227" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C227" s="67">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="B228" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C228" s="67">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B229" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C229" s="67">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B230" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C230" s="67">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="B231" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C231" s="67">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B232" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C232" s="67">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B233" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C233" s="67">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B234" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C234" s="67">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B235" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C235" s="67">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="B236" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C236" s="67">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B237" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C237" s="67">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="B238" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C238" s="67">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B239" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C239" s="67">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="C240" s="67">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B241" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C241" s="67">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="B242" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C242" s="67">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B243" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C243" s="67">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="B244" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C244" s="67">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B245" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C245" s="67">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B246" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C246" s="67">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B247" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C247" s="67">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="B248" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C248" s="67">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B249" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C249" s="67">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="B250" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C250" s="67">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="B251" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C251" s="67">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="B252" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C252" s="67">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B253" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C253" s="67">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="B254" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="C254" s="67">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B255" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="C255" s="67">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B256" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C256" s="67">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B257" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C257" s="67">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B258" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="C258" s="67">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="B259" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C259" s="67">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B260" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C260" s="67">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B261" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C261" s="67">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B262" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C262" s="67">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B263" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C263" s="67">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B264" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C264" s="67">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B265" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C265" s="67">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B266" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C266" s="67">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B267" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C267" s="67">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B268" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C268" s="67">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B269" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C269" s="67">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B270" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C270" s="67">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="B271" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C271" s="67">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B272" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C272" s="67">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B273" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C273" s="67">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B274" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="C274" s="67">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B275" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C275" s="67">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B276" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C276" s="67">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B277" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C277" s="67">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="B278" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C278" s="67">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B279" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C279" s="67">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
-      <c r="A280" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B280" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C280" s="67">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B281" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C281" s="67">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="B282" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C282" s="67">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B283" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C283" s="67">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="B284" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C284" s="67">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B285" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="C285" s="67">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="A286" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B286" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C286" s="67">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="B287" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="C287" s="67">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
-      <c r="A288" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="B288" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C288" s="67">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="A289" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B289" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C289" s="67">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
-      <c r="A290" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B290" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C290" s="67">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B291" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C291" s="67">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
-      <c r="A292" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B292" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C292" s="67">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B293" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C293" s="67">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B294" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C294" s="67">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="A295" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B295" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C295" s="67">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
-      <c r="A296" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B296" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C296" s="67">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B297" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C297" s="67">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
-      <c r="A298" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B298" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C298" s="67">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
-      <c r="A299" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="B299" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C299" s="67">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
-      <c r="A300" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B300" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C300" s="67">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
-      <c r="A301" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B301" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C301" s="67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
-      <c r="A302" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B302" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C302" s="67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
-      <c r="A303" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B303" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="C303" s="67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
-      <c r="A304" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B304" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C304" s="67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
-      <c r="A305" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="B305" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C305" s="67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
-      <c r="A306" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="B306" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C306" s="67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
-      <c r="A307" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B307" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="C307" s="67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
-      <c r="A308" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B308" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C308" s="67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
-      <c r="A309" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="B309" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C309" s="67">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C22:C29">
-    <cfRule type="cellIs" dxfId="50" priority="21" operator="between">
-      <formula>300</formula>
-      <formula>400</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="22" operator="between">
-      <formula>400</formula>
-      <formula>500</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="23" operator="between">
-      <formula>400</formula>
-      <formula>500</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="24" operator="greaterThan">
-      <formula>400</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="25" operator="greaterThan">
-      <formula>500</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C29">
-    <cfRule type="cellIs" dxfId="45" priority="20" operator="between">
-      <formula>200</formula>
-      <formula>300</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C29">
-    <cfRule type="cellIs" dxfId="44" priority="17" operator="between">
-      <formula>150</formula>
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="18" operator="between">
-      <formula>180</formula>
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="19" operator="between">
-      <formula>100</formula>
-      <formula>200</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C39 C58:C83 C93:C183">
-    <cfRule type="cellIs" dxfId="41" priority="16" operator="between">
-      <formula>130</formula>
-      <formula>150</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C39 C58:C83 C93:C183">
-    <cfRule type="cellIs" dxfId="40" priority="15" operator="between">
-      <formula>110</formula>
-      <formula>130</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58:C83 C93:C183">
-    <cfRule type="cellIs" dxfId="39" priority="14" operator="between">
-      <formula>100</formula>
-      <formula>110</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58:C83 C93:C183">
-    <cfRule type="cellIs" dxfId="38" priority="13" operator="between">
-      <formula>80</formula>
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93:C183">
-    <cfRule type="cellIs" dxfId="37" priority="12" operator="between">
-      <formula>70</formula>
-      <formula>80</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93:C183">
-    <cfRule type="cellIs" dxfId="36" priority="11" operator="between">
-      <formula>60</formula>
-      <formula>70</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C109:C183">
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="between">
-      <formula>50</formula>
-      <formula>60</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127:C183">
-    <cfRule type="cellIs" dxfId="34" priority="9" operator="between">
-      <formula>40</formula>
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:C183">
-    <cfRule type="cellIs" dxfId="33" priority="8" operator="between">
-      <formula>30</formula>
-      <formula>40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C184:C196">
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="between">
-      <formula>25</formula>
-      <formula>30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C197:C309">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="between">
-      <formula>23</formula>
-      <formula>25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C209:C309">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="between">
-      <formula>20</formula>
-      <formula>23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C229:C309">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="between">
-      <formula>18</formula>
-      <formula>20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C239:C309">
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="between">
-      <formula>15</formula>
-      <formula>18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C264:C309">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="between">
-      <formula>12</formula>
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C293:C309">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="between">
-      <formula>10</formula>
-      <formula>12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL122"/>
@@ -15873,13 +15439,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
@@ -15917,11 +15483,11 @@
       <c r="AL1" s="39"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" s="63"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -15959,11 +15525,11 @@
       <c r="AL2" s="39"/>
     </row>
     <row r="3" spans="1:38">
-      <c r="A3" s="63"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
@@ -16065,7 +15631,7 @@
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="63"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="6" t="s">
@@ -16173,7 +15739,7 @@
       </c>
     </row>
     <row r="5" spans="1:38" ht="13.8" thickBot="1">
-      <c r="A5" s="63"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
@@ -16279,7 +15845,7 @@
       <c r="AL5" s="14"/>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="63"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="15">
         <v>1</v>
       </c>
@@ -16384,7 +15950,7 @@
       </c>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" s="63"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="20">
         <v>2</v>
       </c>
@@ -16438,7 +16004,7 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" s="63"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="15">
         <v>3</v>
       </c>
@@ -16483,7 +16049,7 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="63"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="20">
         <v>4</v>
       </c>
@@ -16540,7 +16106,7 @@
       </c>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" s="63"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="15">
         <v>5</v>
       </c>
@@ -16651,7 +16217,7 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="63"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="20">
         <v>6</v>
       </c>
@@ -16738,7 +16304,7 @@
       </c>
     </row>
     <row r="12" spans="1:38">
-      <c r="A12" s="63"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="15">
         <v>7</v>
       </c>
@@ -16816,7 +16382,7 @@
       </c>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" s="63"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="20">
         <v>8</v>
       </c>
@@ -16915,7 +16481,7 @@
       </c>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" s="63"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="15">
         <v>9</v>
       </c>
@@ -16972,7 +16538,7 @@
       </c>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" s="63"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="20">
         <v>10</v>
       </c>
@@ -17020,7 +16586,7 @@
       </c>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" s="63"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="15">
         <v>11</v>
       </c>
@@ -17131,7 +16697,7 @@
       </c>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" s="63"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="20">
         <v>12</v>
       </c>
@@ -17215,7 +16781,7 @@
       </c>
     </row>
     <row r="18" spans="1:38">
-      <c r="A18" s="63"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="15">
         <v>13</v>
       </c>
@@ -17299,7 +16865,7 @@
       </c>
     </row>
     <row r="19" spans="1:38">
-      <c r="A19" s="63"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="20">
         <v>14</v>
       </c>
@@ -17410,7 +16976,7 @@
       </c>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" s="63"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="15">
         <v>15</v>
       </c>
@@ -17506,7 +17072,7 @@
       </c>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" s="63"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="20">
         <v>16</v>
       </c>
@@ -17596,7 +17162,7 @@
       </c>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="63"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="15">
         <v>17</v>
       </c>
@@ -17707,7 +17273,7 @@
       </c>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="63"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="20">
         <v>18</v>
       </c>
@@ -17806,7 +17372,7 @@
       </c>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" s="63"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="15">
         <v>19</v>
       </c>
@@ -17899,7 +17465,7 @@
       </c>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" s="63"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="20">
         <v>20</v>
       </c>
@@ -17974,7 +17540,7 @@
       </c>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" s="63"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="15">
         <v>21</v>
       </c>
@@ -18064,7 +17630,7 @@
       </c>
     </row>
     <row r="27" spans="1:38">
-      <c r="A27" s="63"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="20">
         <v>22</v>
       </c>
@@ -18151,7 +17717,7 @@
       </c>
     </row>
     <row r="28" spans="1:38">
-      <c r="A28" s="63"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="15">
         <v>23</v>
       </c>
@@ -18229,7 +17795,7 @@
       </c>
     </row>
     <row r="29" spans="1:38">
-      <c r="A29" s="63"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="20">
         <v>24</v>
       </c>
@@ -18307,7 +17873,7 @@
       </c>
     </row>
     <row r="30" spans="1:38">
-      <c r="A30" s="63"/>
+      <c r="A30" s="76"/>
       <c r="B30" s="15">
         <v>25</v>
       </c>
@@ -18388,7 +17954,7 @@
       </c>
     </row>
     <row r="31" spans="1:38">
-      <c r="A31" s="63"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="20">
         <v>26</v>
       </c>
@@ -18460,7 +18026,7 @@
       </c>
     </row>
     <row r="32" spans="1:38">
-      <c r="A32" s="63"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="15">
         <v>27</v>
       </c>
@@ -18550,7 +18116,7 @@
       </c>
     </row>
     <row r="33" spans="1:38">
-      <c r="A33" s="63"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="20">
         <v>28</v>
       </c>
@@ -18649,7 +18215,7 @@
       </c>
     </row>
     <row r="34" spans="1:38">
-      <c r="A34" s="63"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="15">
         <v>29</v>
       </c>
@@ -18718,7 +18284,7 @@
       </c>
     </row>
     <row r="35" spans="1:38">
-      <c r="A35" s="63"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="20">
         <v>30</v>
       </c>
@@ -18808,7 +18374,7 @@
       </c>
     </row>
     <row r="36" spans="1:38">
-      <c r="A36" s="63"/>
+      <c r="A36" s="76"/>
       <c r="B36" s="15">
         <v>31</v>
       </c>
@@ -18889,7 +18455,7 @@
       </c>
     </row>
     <row r="37" spans="1:38">
-      <c r="A37" s="63"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="20">
         <v>32</v>
       </c>
@@ -19003,7 +18569,7 @@
       </c>
     </row>
     <row r="38" spans="1:38">
-      <c r="A38" s="63"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="15">
         <v>33</v>
       </c>
@@ -19527,7 +19093,7 @@
     <mergeCell ref="B1:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="20" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="54" operator="greaterThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
